--- a/second-order/1879/March1879.xlsx
+++ b/second-order/1879/March1879.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26006"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27004"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catherine.ross\Desktop\2nd Order Stations\1879\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="15643" documentId="13_ncr:1_{E9356B47-DEC7-4267-9140-1B640E6131C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B1FD3432-E679-422F-8B70-2988CE1331AC}"/>
+  <xr:revisionPtr revIDLastSave="16788" documentId="13_ncr:1_{E9356B47-DEC7-4267-9140-1B640E6131C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B5FAB1A9-0994-4945-BAE5-B2E9823E83E0}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="832" firstSheet="2" activeTab="2" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="832" firstSheet="19" activeTab="26" xr2:uid="{F301734F-2AF4-4BAC-817B-B629B6303572}"/>
   </bookViews>
   <sheets>
     <sheet name="Laudale" sheetId="27" r:id="rId1"/>
@@ -62,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4619" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4694" uniqueCount="106">
   <si>
     <t>Barometer</t>
   </si>
@@ -277,19 +277,22 @@
     <t>4-5</t>
   </si>
   <si>
+    <t>SSW-S</t>
+  </si>
+  <si>
     <t>Churchstoke, Montgomery</t>
   </si>
   <si>
     <t>1`</t>
   </si>
   <si>
+    <t>mean:32.9</t>
+  </si>
+  <si>
     <t>Audley End</t>
   </si>
   <si>
     <t xml:space="preserve">Cheltenham </t>
-  </si>
-  <si>
-    <t>0-980</t>
   </si>
   <si>
     <t>Carmarthen</t>
@@ -304,10 +307,10 @@
     <t>Ramsgate</t>
   </si>
   <si>
-    <t>Southampton</t>
+    <t>mean:30.020</t>
   </si>
   <si>
-    <t>..03</t>
+    <t>Southampton</t>
   </si>
   <si>
     <t>Hastings</t>
@@ -320,6 +323,9 @@
   </si>
   <si>
     <t>NNE-NE</t>
+  </si>
+  <si>
+    <t>6-7</t>
   </si>
   <si>
     <t>NE-ENE</t>
@@ -356,9 +362,6 @@
   </si>
   <si>
     <t>Markree Castle</t>
-  </si>
-  <si>
-    <t>*</t>
   </si>
   <si>
     <t>*Barometer under repair during the whole of this month</t>
@@ -417,7 +420,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -594,11 +597,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -657,9 +669,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -702,6 +711,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -720,7 +735,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1008,7 +1023,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1016,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D6BBBF1-A4DB-41BA-A184-52AB6B954A47}">
-  <dimension ref="A2:U35"/>
+  <dimension ref="A2:U36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="U30" sqref="U30"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1032,34 +1047,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="28" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="32" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="28" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="29"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -1312,7 +1327,7 @@
         <v>24</v>
       </c>
       <c r="R6" s="6">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="S6" s="1">
         <v>5</v>
@@ -1320,7 +1335,7 @@
       <c r="T6" s="1">
         <v>10</v>
       </c>
-      <c r="U6" s="22">
+      <c r="U6" s="21">
         <v>1.02</v>
       </c>
     </row>
@@ -1492,7 +1507,7 @@
         <v>0.224</v>
       </c>
       <c r="M9" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="N9" s="6">
         <v>77</v>
@@ -3181,11 +3196,15 @@
       <c r="N35" s="16">
         <v>85.6</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>3.6</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>4.0999999999999996</v>
       </c>
@@ -3198,6 +3217,24 @@
       <c r="U35" s="17">
         <v>7.51</v>
       </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -3214,10 +3251,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69065F44-B6FE-4052-938F-A53648DF520D}">
-  <dimension ref="A2:U35"/>
+  <dimension ref="A2:XFD36"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+    <sheetView topLeftCell="K23" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3230,34 +3267,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="28" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="32" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="28" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="29"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -4966,7 +5003,7 @@
         <v>26</v>
       </c>
       <c r="E29" s="5">
-        <v>29.704000000000001</v>
+        <v>29.75</v>
       </c>
       <c r="F29" s="6">
         <v>29.704000000000001</v>
@@ -5031,7 +5068,7 @@
         <v>27</v>
       </c>
       <c r="E30" s="5">
-        <v>29.649000000000001</v>
+        <v>29.646999999999998</v>
       </c>
       <c r="F30" s="6">
         <v>29.649000000000001</v>
@@ -5096,7 +5133,7 @@
         <v>28</v>
       </c>
       <c r="E31" s="5">
-        <v>29.718</v>
+        <v>29.701000000000001</v>
       </c>
       <c r="F31" s="6">
         <v>29.718</v>
@@ -5161,7 +5198,7 @@
         <v>29</v>
       </c>
       <c r="E32" s="5">
-        <v>29.728000000000002</v>
+        <v>29.579000000000001</v>
       </c>
       <c r="F32" s="6">
         <v>29.728000000000002</v>
@@ -5212,7 +5249,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:21 16384:16384" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
         <v>50</v>
       </c>
@@ -5226,7 +5263,7 @@
         <v>30</v>
       </c>
       <c r="E33" s="5">
-        <v>29.617000000000001</v>
+        <v>29.684999999999999</v>
       </c>
       <c r="F33" s="6">
         <v>29.617000000000001</v>
@@ -5277,7 +5314,7 @@
         <v>7.8E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:21 16384:16384" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
         <v>50</v>
       </c>
@@ -5291,7 +5328,7 @@
         <v>31</v>
       </c>
       <c r="E34" s="7">
-        <v>29.611999999999998</v>
+        <v>29.594000000000001</v>
       </c>
       <c r="F34" s="9">
         <v>29.611999999999998</v>
@@ -5342,7 +5379,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:21 16384:16384" s="1" customFormat="1">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -5379,11 +5416,15 @@
       <c r="N35" s="16">
         <v>87.5</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>2.9</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>2.2999999999999998</v>
       </c>
@@ -5396,6 +5437,24 @@
       <c r="U35" s="17">
         <v>0.64800000000000002</v>
       </c>
+    </row>
+    <row r="36" spans="1:21 16384:16384">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="XFD36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -5416,8 +5475,8 @@
   <dimension ref="A2:W35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R38" sqref="R38"/>
+      <pane ySplit="3" topLeftCell="P30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U36" sqref="U36"/>
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
@@ -5437,34 +5496,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="28" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="32" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="28" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="29"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -5840,7 +5899,7 @@
       <c r="O8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P8" s="27" t="s">
+      <c r="P8" s="26" t="s">
         <v>66</v>
       </c>
       <c r="Q8" s="1" t="s">
@@ -5911,7 +5970,7 @@
       <c r="Q9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="R9" s="26" t="s">
+      <c r="R9" s="25" t="s">
         <v>67</v>
       </c>
       <c r="S9" s="1">
@@ -6006,7 +6065,7 @@
         <v>30.588999999999999</v>
       </c>
       <c r="F11" s="6">
-        <v>30</v>
+        <v>30.48</v>
       </c>
       <c r="G11" s="1">
         <v>39</v>
@@ -6570,7 +6629,7 @@
       <c r="T19" s="1">
         <v>10</v>
       </c>
-      <c r="U19" s="22">
+      <c r="U19" s="21">
         <v>0.24</v>
       </c>
     </row>
@@ -6620,13 +6679,13 @@
       <c r="O20" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="P20" s="27" t="s">
+      <c r="P20" s="26" t="s">
         <v>67</v>
       </c>
       <c r="Q20" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="R20" s="26" t="s">
+      <c r="R20" s="25" t="s">
         <v>68</v>
       </c>
       <c r="S20" s="1">
@@ -6818,7 +6877,7 @@
       <c r="P23" s="1">
         <v>3</v>
       </c>
-      <c r="Q23" s="23" t="s">
+      <c r="Q23" s="22" t="s">
         <v>37</v>
       </c>
       <c r="R23" s="6">
@@ -6880,7 +6939,7 @@
       <c r="O24" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P24" s="27" t="s">
+      <c r="P24" s="26" t="s">
         <v>69</v>
       </c>
       <c r="Q24" s="1" t="s">
@@ -6945,13 +7004,13 @@
       <c r="O25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="P25" s="27" t="s">
+      <c r="P25" s="26" t="s">
         <v>70</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="R25" s="26" t="s">
+      <c r="R25" s="25" t="s">
         <v>70</v>
       </c>
       <c r="S25" s="1">
@@ -7146,7 +7205,7 @@
       <c r="Q28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="R28" s="26" t="s">
+      <c r="R28" s="25" t="s">
         <v>69</v>
       </c>
       <c r="S28" s="1">
@@ -7528,7 +7587,7 @@
         <v>80</v>
       </c>
       <c r="O34" s="8" t="s">
-        <v>40</v>
+        <v>71</v>
       </c>
       <c r="P34" s="8">
         <v>3</v>
@@ -7548,7 +7607,7 @@
       <c r="U34" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="W34" s="24"/>
+      <c r="W34" s="23"/>
     </row>
     <row r="35" spans="1:23">
       <c r="A35" s="14"/>
@@ -7587,11 +7646,15 @@
       <c r="N35" s="16">
         <v>85.2</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>3</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>2.9</v>
       </c>
@@ -7621,10 +7684,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80476FA-4182-4264-80A8-C7112CFAE3A7}">
-  <dimension ref="A2:U35"/>
+  <dimension ref="A2:U36"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView topLeftCell="J23" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7637,34 +7700,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="28" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="32" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="28" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="29"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -7736,7 +7799,7 @@
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B4" s="1">
         <v>1879</v>
@@ -7801,7 +7864,7 @@
     </row>
     <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B5" s="1">
         <v>1879</v>
@@ -7866,7 +7929,7 @@
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6" s="1">
         <v>1879</v>
@@ -7931,7 +7994,7 @@
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B7" s="1">
         <v>1879</v>
@@ -7996,7 +8059,7 @@
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B8" s="1">
         <v>1879</v>
@@ -8061,7 +8124,7 @@
     </row>
     <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B9" s="1">
         <v>1879</v>
@@ -8126,7 +8189,7 @@
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" s="1">
         <v>1879</v>
@@ -8177,7 +8240,7 @@
         <v>22</v>
       </c>
       <c r="R10" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="S10" s="1">
         <v>5</v>
@@ -8191,7 +8254,7 @@
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" s="1">
         <v>1879</v>
@@ -8206,7 +8269,7 @@
         <v>30.561</v>
       </c>
       <c r="F11" s="6">
-        <v>29.481999999999999</v>
+        <v>30.481999999999999</v>
       </c>
       <c r="G11" s="1">
         <v>37.4</v>
@@ -8256,7 +8319,7 @@
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B12" s="1">
         <v>1879</v>
@@ -8321,7 +8384,7 @@
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B13" s="1">
         <v>1879</v>
@@ -8345,7 +8408,7 @@
         <v>45.3</v>
       </c>
       <c r="I13" s="1">
-        <v>2.5</v>
+        <v>42.5</v>
       </c>
       <c r="J13" s="6">
         <v>50.1</v>
@@ -8386,7 +8449,7 @@
     </row>
     <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B14" s="1">
         <v>1879</v>
@@ -8451,7 +8514,7 @@
     </row>
     <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B15" s="1">
         <v>1879</v>
@@ -8516,7 +8579,7 @@
     </row>
     <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B16" s="1">
         <v>1879</v>
@@ -8581,7 +8644,7 @@
     </row>
     <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B17" s="1">
         <v>1879</v>
@@ -8646,7 +8709,7 @@
     </row>
     <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B18" s="1">
         <v>1879</v>
@@ -8711,7 +8774,7 @@
     </row>
     <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B19" s="1">
         <v>1879</v>
@@ -8776,7 +8839,7 @@
     </row>
     <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B20" s="1">
         <v>1879</v>
@@ -8835,13 +8898,13 @@
       <c r="T20" s="1">
         <v>10</v>
       </c>
-      <c r="U20" s="22">
+      <c r="U20" s="21">
         <v>0.35</v>
       </c>
     </row>
     <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B21" s="1">
         <v>1879</v>
@@ -8906,7 +8969,7 @@
     </row>
     <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B22" s="1">
         <v>1879</v>
@@ -8971,7 +9034,7 @@
     </row>
     <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B23" s="1">
         <v>1879</v>
@@ -9036,7 +9099,7 @@
     </row>
     <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B24" s="1">
         <v>1879</v>
@@ -9101,7 +9164,7 @@
     </row>
     <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B25" s="1">
         <v>1879</v>
@@ -9166,7 +9229,7 @@
     </row>
     <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B26" s="1">
         <v>1879</v>
@@ -9231,7 +9294,7 @@
     </row>
     <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B27" s="1">
         <v>1879</v>
@@ -9296,7 +9359,7 @@
     </row>
     <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B28" s="1">
         <v>1879</v>
@@ -9361,7 +9424,7 @@
     </row>
     <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B29" s="1">
         <v>1879</v>
@@ -9426,7 +9489,7 @@
     </row>
     <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B30" s="1">
         <v>1879</v>
@@ -9491,7 +9554,7 @@
     </row>
     <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B31" s="1">
         <v>1879</v>
@@ -9556,7 +9619,7 @@
     </row>
     <row r="32" spans="1:21" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B32" s="1">
         <v>1879</v>
@@ -9621,7 +9684,7 @@
     </row>
     <row r="33" spans="1:21" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B33" s="1">
         <v>1879</v>
@@ -9686,7 +9749,7 @@
     </row>
     <row r="34" spans="1:21" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B34" s="1">
         <v>1879</v>
@@ -9786,11 +9849,15 @@
       <c r="N35" s="16">
         <v>86.4</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>3.1</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>3.2</v>
       </c>
@@ -9803,6 +9870,25 @@
       <c r="U35" s="17">
         <v>1.3029999999999999</v>
       </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -9819,10 +9905,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD56A264-5FEA-4FE0-A75E-E8494B0F0A51}">
-  <dimension ref="A2:U35"/>
+  <dimension ref="A2:U36"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="U41" sqref="U41"/>
+    <sheetView topLeftCell="J23" workbookViewId="0">
+      <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9835,34 +9921,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="28" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="32" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="28" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="29"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -9934,7 +10020,7 @@
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B4" s="1">
         <v>1879</v>
@@ -9999,7 +10085,7 @@
     </row>
     <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B5" s="1">
         <v>1879</v>
@@ -10064,7 +10150,7 @@
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B6" s="1">
         <v>1879</v>
@@ -10129,7 +10215,7 @@
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B7" s="1">
         <v>1879</v>
@@ -10194,7 +10280,7 @@
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B8" s="1">
         <v>1879</v>
@@ -10259,7 +10345,7 @@
     </row>
     <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B9" s="1">
         <v>1879</v>
@@ -10324,7 +10410,7 @@
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B10" s="1">
         <v>1879</v>
@@ -10389,7 +10475,7 @@
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B11" s="1">
         <v>1879</v>
@@ -10454,7 +10540,7 @@
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B12" s="1">
         <v>1879</v>
@@ -10519,7 +10605,7 @@
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B13" s="1">
         <v>1879</v>
@@ -10584,7 +10670,7 @@
     </row>
     <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B14" s="1">
         <v>1879</v>
@@ -10649,7 +10735,7 @@
     </row>
     <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B15" s="1">
         <v>1879</v>
@@ -10714,7 +10800,7 @@
     </row>
     <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B16" s="1">
         <v>1879</v>
@@ -10779,7 +10865,7 @@
     </row>
     <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B17" s="1">
         <v>1879</v>
@@ -10844,7 +10930,7 @@
     </row>
     <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B18" s="1">
         <v>1879</v>
@@ -10909,7 +10995,7 @@
     </row>
     <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B19" s="1">
         <v>1879</v>
@@ -10974,7 +11060,7 @@
     </row>
     <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B20" s="1">
         <v>1879</v>
@@ -11039,7 +11125,7 @@
     </row>
     <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B21" s="1">
         <v>1879</v>
@@ -11104,7 +11190,7 @@
     </row>
     <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B22" s="1">
         <v>1879</v>
@@ -11169,7 +11255,7 @@
     </row>
     <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B23" s="1">
         <v>1879</v>
@@ -11187,7 +11273,7 @@
         <v>29.861000000000001</v>
       </c>
       <c r="G23" s="1">
-        <v>409.6</v>
+        <v>40.6</v>
       </c>
       <c r="H23" s="1">
         <v>40.1</v>
@@ -11234,7 +11320,7 @@
     </row>
     <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B24" s="1">
         <v>1879</v>
@@ -11299,7 +11385,7 @@
     </row>
     <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B25" s="1">
         <v>1879</v>
@@ -11364,7 +11450,7 @@
     </row>
     <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B26" s="1">
         <v>1879</v>
@@ -11429,7 +11515,7 @@
     </row>
     <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B27" s="1">
         <v>1879</v>
@@ -11494,7 +11580,7 @@
     </row>
     <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B28" s="1">
         <v>1879</v>
@@ -11559,7 +11645,7 @@
     </row>
     <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B29" s="1">
         <v>1879</v>
@@ -11624,7 +11710,7 @@
     </row>
     <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B30" s="1">
         <v>1879</v>
@@ -11689,7 +11775,7 @@
     </row>
     <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B31" s="1">
         <v>1879</v>
@@ -11754,7 +11840,7 @@
     </row>
     <row r="32" spans="1:21" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B32" s="1">
         <v>1879</v>
@@ -11819,7 +11905,7 @@
     </row>
     <row r="33" spans="1:21" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B33" s="1">
         <v>1879</v>
@@ -11878,13 +11964,13 @@
       <c r="T33" s="1">
         <v>10</v>
       </c>
-      <c r="U33" s="22">
+      <c r="U33" s="21">
         <v>0.19</v>
       </c>
     </row>
     <row r="34" spans="1:21" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B34" s="1">
         <v>1879</v>
@@ -11984,11 +12070,15 @@
       <c r="N35" s="16">
         <v>88.1</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>2.4</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>1.9</v>
       </c>
@@ -11999,8 +12089,25 @@
         <v>6.4</v>
       </c>
       <c r="U35" s="17">
-        <v>0.01</v>
-      </c>
+        <v>0.91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -12017,10 +12124,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B8F88C9-B23F-4F2A-A610-B51C3EC0FD98}">
-  <dimension ref="A2:U35"/>
+  <dimension ref="A2:U36"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="U33" sqref="U33"/>
+    <sheetView topLeftCell="Q26" workbookViewId="0">
+      <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12033,34 +12140,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="28" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="32" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="28" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="29"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -12132,7 +12239,7 @@
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1">
         <v>1879</v>
@@ -12197,7 +12304,7 @@
     </row>
     <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B5" s="1">
         <v>1879</v>
@@ -12262,7 +12369,7 @@
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B6" s="1">
         <v>1879</v>
@@ -12327,7 +12434,7 @@
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B7" s="1">
         <v>1879</v>
@@ -12392,7 +12499,7 @@
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B8" s="1">
         <v>1879</v>
@@ -12457,7 +12564,7 @@
     </row>
     <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B9" s="1">
         <v>1879</v>
@@ -12522,7 +12629,7 @@
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B10" s="1">
         <v>1879</v>
@@ -12587,7 +12694,7 @@
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B11" s="1">
         <v>1879</v>
@@ -12652,7 +12759,7 @@
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B12" s="1">
         <v>1879</v>
@@ -12717,7 +12824,7 @@
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B13" s="1">
         <v>1879</v>
@@ -12782,7 +12889,7 @@
     </row>
     <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B14" s="1">
         <v>1879</v>
@@ -12847,7 +12954,7 @@
     </row>
     <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B15" s="1">
         <v>1879</v>
@@ -12912,7 +13019,7 @@
     </row>
     <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B16" s="1">
         <v>1879</v>
@@ -12977,7 +13084,7 @@
     </row>
     <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B17" s="1">
         <v>1879</v>
@@ -13042,7 +13149,7 @@
     </row>
     <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B18" s="1">
         <v>1879</v>
@@ -13107,7 +13214,7 @@
     </row>
     <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B19" s="1">
         <v>1879</v>
@@ -13172,7 +13279,7 @@
     </row>
     <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B20" s="1">
         <v>1879</v>
@@ -13237,7 +13344,7 @@
     </row>
     <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B21" s="1">
         <v>1879</v>
@@ -13302,7 +13409,7 @@
     </row>
     <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B22" s="1">
         <v>1879</v>
@@ -13367,7 +13474,7 @@
     </row>
     <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B23" s="1">
         <v>1879</v>
@@ -13432,7 +13539,7 @@
     </row>
     <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B24" s="1">
         <v>1879</v>
@@ -13497,7 +13604,7 @@
     </row>
     <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B25" s="1">
         <v>1879</v>
@@ -13562,7 +13669,7 @@
     </row>
     <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B26" s="1">
         <v>1879</v>
@@ -13627,7 +13734,7 @@
     </row>
     <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B27" s="1">
         <v>1879</v>
@@ -13692,7 +13799,7 @@
     </row>
     <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B28" s="1">
         <v>1879</v>
@@ -13757,7 +13864,7 @@
     </row>
     <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B29" s="1">
         <v>1879</v>
@@ -13822,7 +13929,7 @@
     </row>
     <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B30" s="1">
         <v>1879</v>
@@ -13887,7 +13994,7 @@
     </row>
     <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B31" s="1">
         <v>1879</v>
@@ -13947,12 +14054,12 @@
         <v>10</v>
       </c>
       <c r="U31" s="12">
-        <v>1.7000000000000001E-2</v>
+        <v>0.17</v>
       </c>
     </row>
     <row r="32" spans="1:21" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B32" s="1">
         <v>1879</v>
@@ -14017,7 +14124,7 @@
     </row>
     <row r="33" spans="1:21" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B33" s="1">
         <v>1879</v>
@@ -14076,13 +14183,13 @@
       <c r="T33" s="1">
         <v>9</v>
       </c>
-      <c r="U33" s="22">
+      <c r="U33" s="21">
         <v>0.22</v>
       </c>
     </row>
     <row r="34" spans="1:21" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B34" s="1">
         <v>1879</v>
@@ -14196,9 +14303,26 @@
       <c r="T35" s="16">
         <v>6.9</v>
       </c>
-      <c r="U35" s="17" t="s">
-        <v>75</v>
-      </c>
+      <c r="U35" s="17">
+        <v>0.98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -14219,8 +14343,8 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="F4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W1" sqref="W1"/>
+      <pane ySplit="3" topLeftCell="F32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q36" sqref="Q36"/>
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
@@ -14240,34 +14364,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="28" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="28" t="s">
+      <c r="L2" s="32"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="33"/>
-      <c r="O2" s="28" t="s">
+      <c r="N2" s="32"/>
+      <c r="O2" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="28" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="33"/>
+      <c r="T2" s="32"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -14339,7 +14463,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B4" s="1">
         <v>1879</v>
@@ -14404,7 +14528,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B5" s="1">
         <v>1879</v>
@@ -14469,7 +14593,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" s="1">
         <v>1879</v>
@@ -14534,7 +14658,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B7" s="1">
         <v>1879</v>
@@ -14599,7 +14723,7 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B8" s="1">
         <v>1879</v>
@@ -14664,7 +14788,7 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B9" s="1">
         <v>1879</v>
@@ -14729,7 +14853,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B10" s="1">
         <v>1879</v>
@@ -14794,7 +14918,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B11" s="1">
         <v>1879</v>
@@ -14859,7 +14983,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B12" s="1">
         <v>1879</v>
@@ -14924,7 +15048,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B13" s="1">
         <v>1879</v>
@@ -14989,7 +15113,7 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B14" s="1">
         <v>1879</v>
@@ -15054,7 +15178,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B15" s="1">
         <v>1879</v>
@@ -15119,7 +15243,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B16" s="1">
         <v>1879</v>
@@ -15184,7 +15308,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B17" s="1">
         <v>1879</v>
@@ -15249,7 +15373,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B18" s="1">
         <v>1879</v>
@@ -15314,7 +15438,7 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B19" s="1">
         <v>1879</v>
@@ -15379,7 +15503,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B20" s="1">
         <v>1879</v>
@@ -15438,13 +15562,13 @@
       <c r="T20" s="1">
         <v>10</v>
       </c>
-      <c r="U20" s="22">
+      <c r="U20" s="21">
         <v>0.63</v>
       </c>
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B21" s="1">
         <v>1879</v>
@@ -15509,7 +15633,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B22" s="1">
         <v>1879</v>
@@ -15574,7 +15698,7 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B23" s="1">
         <v>1879</v>
@@ -15639,7 +15763,7 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B24" s="1">
         <v>1879</v>
@@ -15704,7 +15828,7 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B25" s="1">
         <v>1879</v>
@@ -15769,7 +15893,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B26" s="1">
         <v>1879</v>
@@ -15834,7 +15958,7 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B27" s="1">
         <v>1879</v>
@@ -15899,7 +16023,7 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B28" s="1">
         <v>1879</v>
@@ -15964,7 +16088,7 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B29" s="1">
         <v>1879</v>
@@ -16029,7 +16153,7 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B30" s="1">
         <v>1879</v>
@@ -16094,7 +16218,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B31" s="1">
         <v>1879</v>
@@ -16159,7 +16283,7 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B32" s="1">
         <v>1879</v>
@@ -16224,7 +16348,7 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="5" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B33" s="1">
         <v>1879</v>
@@ -16289,7 +16413,7 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B34" s="1">
         <v>1879</v>
@@ -16389,11 +16513,15 @@
       <c r="N35" s="16">
         <v>88.4</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>1.8</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>1.6</v>
       </c>
@@ -16423,10 +16551,10 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F4D50969-602C-407C-90E2-38F88EF089F3}">
-  <dimension ref="A2:U35"/>
+  <dimension ref="A2:U36"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView topLeftCell="K23" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16439,34 +16567,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="28" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="32" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="28" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="29"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -16538,7 +16666,7 @@
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B4" s="1">
         <v>1879</v>
@@ -16603,7 +16731,7 @@
     </row>
     <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B5" s="1">
         <v>1879</v>
@@ -16668,7 +16796,7 @@
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B6" s="1">
         <v>1879</v>
@@ -16733,7 +16861,7 @@
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B7" s="1">
         <v>1879</v>
@@ -16798,7 +16926,7 @@
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B8" s="1">
         <v>1879</v>
@@ -16863,7 +16991,7 @@
     </row>
     <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B9" s="1">
         <v>1879</v>
@@ -16928,7 +17056,7 @@
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B10" s="1">
         <v>1879</v>
@@ -16993,7 +17121,7 @@
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B11" s="1">
         <v>1879</v>
@@ -17058,7 +17186,7 @@
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B12" s="1">
         <v>1879</v>
@@ -17123,7 +17251,7 @@
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B13" s="1">
         <v>1879</v>
@@ -17188,7 +17316,7 @@
     </row>
     <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B14" s="1">
         <v>1879</v>
@@ -17253,7 +17381,7 @@
     </row>
     <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B15" s="1">
         <v>1879</v>
@@ -17318,7 +17446,7 @@
     </row>
     <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B16" s="1">
         <v>1879</v>
@@ -17383,7 +17511,7 @@
     </row>
     <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B17" s="1">
         <v>1879</v>
@@ -17398,7 +17526,7 @@
         <v>30.251999999999999</v>
       </c>
       <c r="F17" s="6">
-        <v>20.036000000000001</v>
+        <v>30.036000000000001</v>
       </c>
       <c r="G17" s="1">
         <v>33.700000000000003</v>
@@ -17448,7 +17576,7 @@
     </row>
     <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B18" s="1">
         <v>1879</v>
@@ -17513,7 +17641,7 @@
     </row>
     <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B19" s="1">
         <v>1879</v>
@@ -17578,7 +17706,7 @@
     </row>
     <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B20" s="1">
         <v>1879</v>
@@ -17643,7 +17771,7 @@
     </row>
     <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B21" s="1">
         <v>1879</v>
@@ -17708,7 +17836,7 @@
     </row>
     <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B22" s="1">
         <v>1879</v>
@@ -17773,7 +17901,7 @@
     </row>
     <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B23" s="1">
         <v>1879</v>
@@ -17838,7 +17966,7 @@
     </row>
     <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B24" s="1">
         <v>1879</v>
@@ -17903,7 +18031,7 @@
     </row>
     <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B25" s="1">
         <v>1879</v>
@@ -17968,7 +18096,7 @@
     </row>
     <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B26" s="1">
         <v>1879</v>
@@ -18033,7 +18161,7 @@
     </row>
     <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B27" s="1">
         <v>1879</v>
@@ -18098,7 +18226,7 @@
     </row>
     <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B28" s="1">
         <v>1879</v>
@@ -18163,7 +18291,7 @@
     </row>
     <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B29" s="1">
         <v>1879</v>
@@ -18228,7 +18356,7 @@
     </row>
     <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B30" s="1">
         <v>1879</v>
@@ -18293,7 +18421,7 @@
     </row>
     <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B31" s="1">
         <v>1879</v>
@@ -18358,7 +18486,7 @@
     </row>
     <row r="32" spans="1:21" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B32" s="1">
         <v>1879</v>
@@ -18423,7 +18551,7 @@
     </row>
     <row r="33" spans="1:21" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B33" s="1">
         <v>1879</v>
@@ -18482,13 +18610,13 @@
       <c r="T33" s="1">
         <v>10</v>
       </c>
-      <c r="U33" s="22">
+      <c r="U33" s="21">
         <v>0.23</v>
       </c>
     </row>
     <row r="34" spans="1:21" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B34" s="1">
         <v>1879</v>
@@ -18588,11 +18716,15 @@
       <c r="N35" s="16">
         <v>89.6</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>0.9</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>0.7</v>
       </c>
@@ -18605,6 +18737,23 @@
       <c r="U35" s="17">
         <v>0.94299999999999995</v>
       </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -18625,8 +18774,8 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U11" sqref="U11"/>
+      <pane ySplit="3" topLeftCell="E26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
@@ -18646,34 +18795,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="28" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="32" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="28" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="29"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -18745,7 +18894,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4" s="1">
         <v>1879</v>
@@ -18810,7 +18959,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B5" s="1">
         <v>1879</v>
@@ -18875,7 +19024,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B6" s="1">
         <v>1879</v>
@@ -18940,7 +19089,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B7" s="1">
         <v>1879</v>
@@ -18984,14 +19133,14 @@
       <c r="O7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P7" s="23">
-        <v>44622</v>
+      <c r="P7" s="26" t="s">
+        <v>67</v>
       </c>
       <c r="Q7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R7" s="20">
-        <v>44654</v>
+      <c r="R7" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="S7" s="1">
         <v>9</v>
@@ -19005,7 +19154,7 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B8" s="1">
         <v>1879</v>
@@ -19049,14 +19198,14 @@
       <c r="O8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P8" s="23">
-        <v>44654</v>
+      <c r="P8" s="26" t="s">
+        <v>68</v>
       </c>
       <c r="Q8" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R8" s="20">
-        <v>44717</v>
+      <c r="R8" s="25" t="s">
+        <v>66</v>
       </c>
       <c r="S8" s="1">
         <v>10</v>
@@ -19070,7 +19219,7 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B9" s="1">
         <v>1879</v>
@@ -19135,7 +19284,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B10" s="1">
         <v>1879</v>
@@ -19200,7 +19349,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B11" s="1">
         <v>1879</v>
@@ -19265,7 +19414,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B12" s="1">
         <v>1879</v>
@@ -19330,7 +19479,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B13" s="1">
         <v>1879</v>
@@ -19380,8 +19529,8 @@
       <c r="Q13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R13" s="20">
-        <v>44654</v>
+      <c r="R13" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="S13" s="1">
         <v>10</v>
@@ -19395,7 +19544,7 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B14" s="1">
         <v>1879</v>
@@ -19439,8 +19588,8 @@
       <c r="O14" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="P14" s="23">
-        <v>44654</v>
+      <c r="P14" s="26" t="s">
+        <v>68</v>
       </c>
       <c r="Q14" s="1" t="s">
         <v>36</v>
@@ -19460,7 +19609,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B15" s="1">
         <v>1879</v>
@@ -19510,8 +19659,8 @@
       <c r="Q15" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="R15" s="20">
-        <v>44654</v>
+      <c r="R15" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="S15" s="1">
         <v>10</v>
@@ -19525,7 +19674,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B16" s="1">
         <v>1879</v>
@@ -19569,8 +19718,8 @@
       <c r="O16" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P16" s="23">
-        <v>44654</v>
+      <c r="P16" s="26" t="s">
+        <v>68</v>
       </c>
       <c r="Q16" s="1" t="s">
         <v>36</v>
@@ -19590,7 +19739,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B17" s="1">
         <v>1879</v>
@@ -19640,8 +19789,8 @@
       <c r="Q17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="R17" s="20">
-        <v>44622</v>
+      <c r="R17" s="25" t="s">
+        <v>67</v>
       </c>
       <c r="S17" s="1">
         <v>10</v>
@@ -19655,7 +19804,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B18" s="1">
         <v>1879</v>
@@ -19720,7 +19869,7 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B19" s="1">
         <v>1879</v>
@@ -19785,7 +19934,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B20" s="1">
         <v>1879</v>
@@ -19850,7 +19999,7 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B21" s="1">
         <v>1879</v>
@@ -19910,12 +20059,12 @@
         <v>10</v>
       </c>
       <c r="U21" s="12">
-        <v>5.1999999999999998E-2</v>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B22" s="1">
         <v>1879</v>
@@ -19980,7 +20129,7 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B23" s="1">
         <v>1879</v>
@@ -20030,8 +20179,8 @@
       <c r="Q23" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R23" s="20">
-        <v>44654</v>
+      <c r="R23" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="S23" s="1">
         <v>10</v>
@@ -20045,7 +20194,7 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B24" s="1">
         <v>1879</v>
@@ -20110,7 +20259,7 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B25" s="1">
         <v>1879</v>
@@ -20154,14 +20303,14 @@
       <c r="O25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P25" s="23">
-        <v>44654</v>
+      <c r="P25" s="26" t="s">
+        <v>68</v>
       </c>
       <c r="Q25" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R25" s="20">
-        <v>44654</v>
+      <c r="R25" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="S25" s="1">
         <v>10</v>
@@ -20175,7 +20324,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B26" s="1">
         <v>1879</v>
@@ -20219,14 +20368,14 @@
       <c r="O26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P26" s="23">
-        <v>44622</v>
+      <c r="P26" s="26" t="s">
+        <v>67</v>
       </c>
       <c r="Q26" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R26" s="20">
-        <v>44654</v>
+      <c r="R26" s="25" t="s">
+        <v>68</v>
       </c>
       <c r="S26" s="1">
         <v>10</v>
@@ -20240,7 +20389,7 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B27" s="1">
         <v>1879</v>
@@ -20284,14 +20433,14 @@
       <c r="O27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P27" s="23">
-        <v>44685</v>
+      <c r="P27" s="26" t="s">
+        <v>70</v>
       </c>
       <c r="Q27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R27" s="20">
-        <v>44685</v>
+      <c r="R27" s="25" t="s">
+        <v>70</v>
       </c>
       <c r="S27" s="1">
         <v>10</v>
@@ -20305,7 +20454,7 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B28" s="1">
         <v>1879</v>
@@ -20349,8 +20498,8 @@
       <c r="O28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P28" s="23">
-        <v>44654</v>
+      <c r="P28" s="26" t="s">
+        <v>68</v>
       </c>
       <c r="Q28" s="1" t="s">
         <v>26</v>
@@ -20370,7 +20519,7 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B29" s="1">
         <v>1879</v>
@@ -20420,8 +20569,8 @@
       <c r="Q29" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R29" s="20">
-        <v>44622</v>
+      <c r="R29" s="25" t="s">
+        <v>67</v>
       </c>
       <c r="S29" s="1">
         <v>10</v>
@@ -20435,7 +20584,7 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B30" s="1">
         <v>1879</v>
@@ -20500,7 +20649,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B31" s="1">
         <v>1879</v>
@@ -20550,8 +20699,8 @@
       <c r="Q31" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="R31" s="20">
-        <v>44622</v>
+      <c r="R31" s="25" t="s">
+        <v>67</v>
       </c>
       <c r="S31" s="1">
         <v>10</v>
@@ -20565,7 +20714,7 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B32" s="1">
         <v>1879</v>
@@ -20609,8 +20758,8 @@
       <c r="O32" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="P32" s="23">
-        <v>44622</v>
+      <c r="P32" s="26" t="s">
+        <v>67</v>
       </c>
       <c r="Q32" s="1" t="s">
         <v>29</v>
@@ -20630,7 +20779,7 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="5" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B33" s="1">
         <v>1879</v>
@@ -20680,8 +20829,8 @@
       <c r="Q33" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R33" s="20">
-        <v>44622</v>
+      <c r="R33" s="25" t="s">
+        <v>67</v>
       </c>
       <c r="S33" s="1">
         <v>7</v>
@@ -20695,7 +20844,7 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B34" s="1">
         <v>1879</v>
@@ -20795,11 +20944,15 @@
       <c r="N35" s="16">
         <v>81.400000000000006</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>2.2000000000000002</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>2.1</v>
       </c>
@@ -20829,10 +20982,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A310F85-A627-4FFA-A76E-4BA45485986E}">
-  <dimension ref="A2:U35"/>
+  <dimension ref="A2:U36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="X28" sqref="X28"/>
+    <sheetView topLeftCell="N22" workbookViewId="0">
+      <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -20845,34 +20998,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="28" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="32" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="28" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="29"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -20944,7 +21097,7 @@
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B4" s="1">
         <v>1879</v>
@@ -21009,7 +21162,7 @@
     </row>
     <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B5" s="1">
         <v>1879</v>
@@ -21074,7 +21227,7 @@
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B6" s="1">
         <v>1879</v>
@@ -21139,7 +21292,7 @@
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B7" s="1">
         <v>1879</v>
@@ -21204,7 +21357,7 @@
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B8" s="1">
         <v>1879</v>
@@ -21269,7 +21422,7 @@
     </row>
     <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B9" s="1">
         <v>1879</v>
@@ -21334,7 +21487,7 @@
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B10" s="1">
         <v>1879</v>
@@ -21399,7 +21552,7 @@
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B11" s="1">
         <v>1879</v>
@@ -21464,7 +21617,7 @@
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B12" s="1">
         <v>1879</v>
@@ -21529,7 +21682,7 @@
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B13" s="1">
         <v>1879</v>
@@ -21594,7 +21747,7 @@
     </row>
     <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B14" s="1">
         <v>1879</v>
@@ -21653,13 +21806,13 @@
       <c r="T14" s="1">
         <v>10</v>
       </c>
-      <c r="U14" s="22">
+      <c r="U14" s="21">
         <v>0.13</v>
       </c>
     </row>
     <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B15" s="1">
         <v>1879</v>
@@ -21724,7 +21877,7 @@
     </row>
     <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B16" s="1">
         <v>1879</v>
@@ -21789,7 +21942,7 @@
     </row>
     <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B17" s="1">
         <v>1879</v>
@@ -21854,7 +22007,7 @@
     </row>
     <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B18" s="1">
         <v>1879</v>
@@ -21919,7 +22072,7 @@
     </row>
     <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B19" s="1">
         <v>1879</v>
@@ -21984,7 +22137,7 @@
     </row>
     <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B20" s="1">
         <v>1879</v>
@@ -22049,7 +22202,7 @@
     </row>
     <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B21" s="1">
         <v>1879</v>
@@ -22114,7 +22267,7 @@
     </row>
     <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B22" s="1">
         <v>1879</v>
@@ -22179,7 +22332,7 @@
     </row>
     <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B23" s="1">
         <v>1879</v>
@@ -22206,7 +22359,7 @@
         <v>41.8</v>
       </c>
       <c r="J23" s="6">
-        <v>487.8</v>
+        <v>47.8</v>
       </c>
       <c r="K23" s="1">
         <v>0.25600000000000001</v>
@@ -22244,7 +22397,7 @@
     </row>
     <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B24" s="1">
         <v>1879</v>
@@ -22309,7 +22462,7 @@
     </row>
     <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B25" s="1">
         <v>1879</v>
@@ -22374,7 +22527,7 @@
     </row>
     <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B26" s="1">
         <v>1879</v>
@@ -22439,7 +22592,7 @@
     </row>
     <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B27" s="1">
         <v>1879</v>
@@ -22451,7 +22604,7 @@
         <v>24</v>
       </c>
       <c r="E27" s="5">
-        <v>19.875</v>
+        <v>29.875</v>
       </c>
       <c r="F27" s="6">
         <v>29.869</v>
@@ -22504,7 +22657,7 @@
     </row>
     <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B28" s="1">
         <v>1879</v>
@@ -22569,7 +22722,7 @@
     </row>
     <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B29" s="1">
         <v>1879</v>
@@ -22634,7 +22787,7 @@
     </row>
     <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B30" s="1">
         <v>1879</v>
@@ -22699,7 +22852,7 @@
     </row>
     <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B31" s="1">
         <v>1879</v>
@@ -22764,7 +22917,7 @@
     </row>
     <row r="32" spans="1:21" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B32" s="1">
         <v>1879</v>
@@ -22829,7 +22982,7 @@
     </row>
     <row r="33" spans="1:21" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B33" s="1">
         <v>1879</v>
@@ -22880,7 +23033,7 @@
         <v>22</v>
       </c>
       <c r="R33" s="6">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S33" s="1">
         <v>5</v>
@@ -22894,7 +23047,7 @@
     </row>
     <row r="34" spans="1:21" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B34" s="1">
         <v>1879</v>
@@ -22994,11 +23147,15 @@
       <c r="N35" s="16">
         <v>89.3</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>2.7</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>1.8</v>
       </c>
@@ -23011,6 +23168,25 @@
       <c r="U35" s="17">
         <v>0.7</v>
       </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -23027,10 +23203,10 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B67C626-385D-4BB4-83E7-BBFACA9022E8}">
-  <dimension ref="A2:U35"/>
+  <dimension ref="A2:U36"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+    <sheetView topLeftCell="L23" workbookViewId="0">
+      <selection activeCell="T36" sqref="T36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23043,34 +23219,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="28" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="32" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="28" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="29"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -23142,7 +23318,7 @@
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B4" s="1">
         <v>1879</v>
@@ -23207,7 +23383,7 @@
     </row>
     <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B5" s="1">
         <v>1879</v>
@@ -23272,7 +23448,7 @@
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B6" s="1">
         <v>1879</v>
@@ -23337,7 +23513,7 @@
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B7" s="1">
         <v>1879</v>
@@ -23402,7 +23578,7 @@
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B8" s="1">
         <v>1879</v>
@@ -23467,7 +23643,7 @@
     </row>
     <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B9" s="1">
         <v>1879</v>
@@ -23532,7 +23708,7 @@
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B10" s="1">
         <v>1879</v>
@@ -23597,7 +23773,7 @@
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B11" s="1">
         <v>1879</v>
@@ -23662,7 +23838,7 @@
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B12" s="1">
         <v>1879</v>
@@ -23721,13 +23897,13 @@
       <c r="T12" s="1">
         <v>0</v>
       </c>
-      <c r="U12" s="12" t="s">
-        <v>81</v>
+      <c r="U12" s="12">
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B13" s="1">
         <v>1879</v>
@@ -23792,7 +23968,7 @@
     </row>
     <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B14" s="1">
         <v>1879</v>
@@ -23857,7 +24033,7 @@
     </row>
     <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B15" s="1">
         <v>1879</v>
@@ -23922,7 +24098,7 @@
     </row>
     <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B16" s="1">
         <v>1879</v>
@@ -23987,7 +24163,7 @@
     </row>
     <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B17" s="1">
         <v>1879</v>
@@ -24052,7 +24228,7 @@
     </row>
     <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B18" s="1">
         <v>1879</v>
@@ -24117,7 +24293,7 @@
     </row>
     <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B19" s="1">
         <v>1879</v>
@@ -24182,7 +24358,7 @@
     </row>
     <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B20" s="1">
         <v>1879</v>
@@ -24247,7 +24423,7 @@
     </row>
     <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B21" s="1">
         <v>1879</v>
@@ -24312,7 +24488,7 @@
     </row>
     <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B22" s="1">
         <v>1879</v>
@@ -24377,7 +24553,7 @@
     </row>
     <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B23" s="1">
         <v>1879</v>
@@ -24442,7 +24618,7 @@
     </row>
     <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B24" s="1">
         <v>1879</v>
@@ -24507,7 +24683,7 @@
     </row>
     <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B25" s="1">
         <v>1879</v>
@@ -24572,7 +24748,7 @@
     </row>
     <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B26" s="1">
         <v>1879</v>
@@ -24637,7 +24813,7 @@
     </row>
     <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B27" s="1">
         <v>1879</v>
@@ -24702,7 +24878,7 @@
     </row>
     <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B28" s="1">
         <v>1879</v>
@@ -24767,7 +24943,7 @@
     </row>
     <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B29" s="1">
         <v>1879</v>
@@ -24832,7 +25008,7 @@
     </row>
     <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B30" s="1">
         <v>1879</v>
@@ -24897,7 +25073,7 @@
     </row>
     <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B31" s="1">
         <v>1879</v>
@@ -24962,7 +25138,7 @@
     </row>
     <row r="32" spans="1:21" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B32" s="1">
         <v>1879</v>
@@ -25027,7 +25203,7 @@
     </row>
     <row r="33" spans="1:21" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B33" s="1">
         <v>1879</v>
@@ -25092,7 +25268,7 @@
     </row>
     <row r="34" spans="1:21" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B34" s="1">
         <v>1879</v>
@@ -25192,11 +25368,15 @@
       <c r="N35" s="16">
         <v>89</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>3</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>2.9</v>
       </c>
@@ -25209,6 +25389,23 @@
       <c r="U35" s="17">
         <v>0.47799999999999998</v>
       </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -25225,10 +25422,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4108655-B436-409A-BEA1-C15E2C901F28}">
-  <dimension ref="A2:U35"/>
+  <dimension ref="A2:V36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="U7" sqref="U7"/>
+    <sheetView topLeftCell="M23" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -25241,34 +25438,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="28" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="32" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="28" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="29"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -26197,7 +26394,7 @@
         <v>14</v>
       </c>
       <c r="E17" s="5">
-        <v>39.265000000000001</v>
+        <v>30.265000000000001</v>
       </c>
       <c r="F17" s="6">
         <v>29.957000000000001</v>
@@ -26960,7 +27157,7 @@
         <v>10</v>
       </c>
       <c r="U28" s="12">
-        <v>3.7999999999999999E-2</v>
+        <v>3.5000000000000003E-2</v>
       </c>
     </row>
     <row r="29" spans="1:21" s="1" customFormat="1">
@@ -27223,7 +27420,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:22" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
         <v>35</v>
       </c>
@@ -27288,7 +27485,7 @@
         <v>0.183</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:22" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
         <v>35</v>
       </c>
@@ -27353,7 +27550,7 @@
         <v>4.4999999999999998E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:22" s="1" customFormat="1">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -27390,11 +27587,15 @@
       <c r="N35" s="16">
         <v>83.2</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>2.5</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>1.8</v>
       </c>
@@ -27407,6 +27608,24 @@
       <c r="U35" s="17">
         <v>4.2629999999999999</v>
       </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -27425,8 +27644,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{198EE2E4-A17F-42E2-BEC0-BDCB486A0EB2}">
   <dimension ref="A2:U46"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="Q33" sqref="A33:Q44"/>
+    <sheetView topLeftCell="K26" workbookViewId="0">
+      <selection activeCell="U36" sqref="U36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -27439,34 +27658,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="28" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="32" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="28" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="29"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -27538,7 +27757,7 @@
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B4" s="1">
         <v>1879</v>
@@ -27603,7 +27822,7 @@
     </row>
     <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B5" s="1">
         <v>1879</v>
@@ -27668,7 +27887,7 @@
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B6" s="1">
         <v>1879</v>
@@ -27733,7 +27952,7 @@
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B7" s="1">
         <v>1879</v>
@@ -27798,7 +28017,7 @@
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B8" s="1">
         <v>1879</v>
@@ -27863,7 +28082,7 @@
     </row>
     <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B9" s="1">
         <v>1879</v>
@@ -27928,7 +28147,7 @@
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B10" s="1">
         <v>1879</v>
@@ -27993,7 +28212,7 @@
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B11" s="1">
         <v>1879</v>
@@ -28041,7 +28260,7 @@
         <v>1</v>
       </c>
       <c r="Q11" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R11" s="6">
         <v>2</v>
@@ -28058,7 +28277,7 @@
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B12" s="1">
         <v>1879</v>
@@ -28123,7 +28342,7 @@
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B13" s="1">
         <v>1879</v>
@@ -28147,7 +28366,7 @@
         <v>42</v>
       </c>
       <c r="I13" s="1">
-        <v>38.299999999999997</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="J13" s="6">
         <v>50</v>
@@ -28173,7 +28392,7 @@
       <c r="Q13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="R13" s="26" t="s">
+      <c r="R13" s="25" t="s">
         <v>70</v>
       </c>
       <c r="S13" s="1">
@@ -28188,7 +28407,7 @@
     </row>
     <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B14" s="1">
         <v>1879</v>
@@ -28236,7 +28455,7 @@
         <v>2</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="R14" s="6" t="s">
         <v>38</v>
@@ -28253,7 +28472,7 @@
     </row>
     <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B15" s="1">
         <v>1879</v>
@@ -28318,7 +28537,7 @@
     </row>
     <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B16" s="1">
         <v>1879</v>
@@ -28383,7 +28602,7 @@
     </row>
     <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B17" s="1">
         <v>1879</v>
@@ -28407,7 +28626,7 @@
         <v>37.5</v>
       </c>
       <c r="I17" s="1">
-        <v>31</v>
+        <v>31.9</v>
       </c>
       <c r="J17" s="6">
         <v>40.799999999999997</v>
@@ -28448,7 +28667,7 @@
     </row>
     <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B18" s="1">
         <v>1879</v>
@@ -28513,7 +28732,7 @@
     </row>
     <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B19" s="1">
         <v>1879</v>
@@ -28557,8 +28776,8 @@
       <c r="O19" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="P19" s="23">
-        <v>44685</v>
+      <c r="P19" s="26" t="s">
+        <v>70</v>
       </c>
       <c r="Q19" s="1" t="s">
         <v>29</v>
@@ -28578,7 +28797,7 @@
     </row>
     <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B20" s="1">
         <v>1879</v>
@@ -28643,7 +28862,7 @@
     </row>
     <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B21" s="1">
         <v>1879</v>
@@ -28708,7 +28927,7 @@
     </row>
     <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B22" s="1">
         <v>1879</v>
@@ -28773,7 +28992,7 @@
     </row>
     <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B23" s="1">
         <v>1879</v>
@@ -28838,7 +29057,7 @@
     </row>
     <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B24" s="1">
         <v>1879</v>
@@ -28903,7 +29122,7 @@
     </row>
     <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B25" s="1">
         <v>1879</v>
@@ -28968,7 +29187,7 @@
     </row>
     <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B26" s="1">
         <v>1879</v>
@@ -29016,9 +29235,9 @@
         <v>5</v>
       </c>
       <c r="Q26" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="R26" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="R26" s="25" t="s">
         <v>66</v>
       </c>
       <c r="S26" s="1">
@@ -29033,7 +29252,7 @@
     </row>
     <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B27" s="1">
         <v>1879</v>
@@ -29077,11 +29296,11 @@
       <c r="O27" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="P27" s="23">
-        <v>44748</v>
+      <c r="P27" s="26" t="s">
+        <v>87</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R27" s="6">
         <v>5</v>
@@ -29098,7 +29317,7 @@
     </row>
     <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B28" s="1">
         <v>1879</v>
@@ -29163,7 +29382,7 @@
     </row>
     <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B29" s="1">
         <v>1879</v>
@@ -29228,7 +29447,7 @@
     </row>
     <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B30" s="1">
         <v>1879</v>
@@ -29278,7 +29497,7 @@
       <c r="Q30" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="R30" s="26" t="s">
+      <c r="R30" s="25" t="s">
         <v>70</v>
       </c>
       <c r="S30" s="1">
@@ -29293,7 +29512,7 @@
     </row>
     <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B31" s="1">
         <v>1879</v>
@@ -29341,7 +29560,7 @@
         <v>3</v>
       </c>
       <c r="Q31" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="R31" s="6">
         <v>2</v>
@@ -29358,7 +29577,7 @@
     </row>
     <row r="32" spans="1:21" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B32" s="1">
         <v>1879</v>
@@ -29406,9 +29625,9 @@
         <v>4</v>
       </c>
       <c r="Q32" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="R32" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="R32" s="25" t="s">
         <v>66</v>
       </c>
       <c r="S32" s="1">
@@ -29423,7 +29642,7 @@
     </row>
     <row r="33" spans="1:21" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B33" s="1">
         <v>1879</v>
@@ -29482,13 +29701,13 @@
       <c r="T33" s="1">
         <v>9</v>
       </c>
-      <c r="U33" s="22">
+      <c r="U33" s="21">
         <v>0.22</v>
       </c>
     </row>
     <row r="34" spans="1:21" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B34" s="1">
         <v>1879</v>
@@ -29588,11 +29807,15 @@
       <c r="N35" s="16">
         <v>86</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>3</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>2.7</v>
       </c>
@@ -29605,6 +29828,23 @@
       <c r="U35" s="17">
         <v>0.9</v>
       </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
     </row>
     <row r="44" spans="1:21">
       <c r="J44">
@@ -29640,8 +29880,8 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
+      <pane ySplit="3" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U36" sqref="U36"/>
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
@@ -29661,34 +29901,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="28" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="32" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="28" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="29"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -29760,7 +30000,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B4" s="1">
         <v>1879</v>
@@ -29825,7 +30065,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B5" s="1">
         <v>1879</v>
@@ -29890,7 +30130,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B6" s="1">
         <v>1879</v>
@@ -29955,7 +30195,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B7" s="1">
         <v>1879</v>
@@ -30020,7 +30260,7 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B8" s="1">
         <v>1879</v>
@@ -30085,7 +30325,7 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B9" s="1">
         <v>1879</v>
@@ -30150,7 +30390,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B10" s="1">
         <v>1879</v>
@@ -30215,7 +30455,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B11" s="1">
         <v>1879</v>
@@ -30280,7 +30520,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B12" s="1">
         <v>1879</v>
@@ -30345,7 +30585,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B13" s="1">
         <v>1879</v>
@@ -30410,7 +30650,7 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B14" s="1">
         <v>1879</v>
@@ -30475,7 +30715,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B15" s="1">
         <v>1879</v>
@@ -30540,7 +30780,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B16" s="1">
         <v>1879</v>
@@ -30605,7 +30845,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B17" s="1">
         <v>1879</v>
@@ -30670,7 +30910,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B18" s="1">
         <v>1879</v>
@@ -30735,7 +30975,7 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B19" s="1">
         <v>1879</v>
@@ -30800,7 +31040,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B20" s="1">
         <v>1879</v>
@@ -30865,7 +31105,7 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B21" s="1">
         <v>1879</v>
@@ -30930,7 +31170,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B22" s="1">
         <v>1879</v>
@@ -30995,7 +31235,7 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B23" s="1">
         <v>1879</v>
@@ -31060,7 +31300,7 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B24" s="1">
         <v>1879</v>
@@ -31125,7 +31365,7 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B25" s="1">
         <v>1879</v>
@@ -31190,7 +31430,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B26" s="1">
         <v>1879</v>
@@ -31255,7 +31495,7 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B27" s="1">
         <v>1879</v>
@@ -31315,12 +31555,12 @@
         <v>8</v>
       </c>
       <c r="U27" s="12">
-        <v>1.2E-2</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B28" s="1">
         <v>1879</v>
@@ -31385,7 +31625,7 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B29" s="1">
         <v>1879</v>
@@ -31444,13 +31684,13 @@
       <c r="T29" s="1">
         <v>0</v>
       </c>
-      <c r="U29" s="22">
+      <c r="U29" s="21">
         <v>0.75</v>
       </c>
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B30" s="1">
         <v>1879</v>
@@ -31515,7 +31755,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B31" s="1">
         <v>1879</v>
@@ -31580,7 +31820,7 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B32" s="1">
         <v>1879</v>
@@ -31645,7 +31885,7 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="5" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B33" s="1">
         <v>1879</v>
@@ -31710,7 +31950,7 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B34" s="1">
         <v>1879</v>
@@ -31810,11 +32050,15 @@
       <c r="N35" s="16">
         <v>95.9</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>2.9</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>2.2999999999999998</v>
       </c>
@@ -31844,10 +32088,10 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B3289CD-9D97-49EF-92C4-FFFF5740CCC3}">
-  <dimension ref="A2:U35"/>
+  <dimension ref="A2:U36"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+    <sheetView topLeftCell="L26" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31860,34 +32104,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="28" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="32" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="28" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="29"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -31959,7 +32203,7 @@
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B4" s="1">
         <v>1879</v>
@@ -32024,7 +32268,7 @@
     </row>
     <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B5" s="1">
         <v>1879</v>
@@ -32089,7 +32333,7 @@
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B6" s="1">
         <v>1879</v>
@@ -32154,7 +32398,7 @@
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B7" s="1">
         <v>1879</v>
@@ -32219,7 +32463,7 @@
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B8" s="1">
         <v>1879</v>
@@ -32284,7 +32528,7 @@
     </row>
     <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B9" s="1">
         <v>1879</v>
@@ -32349,7 +32593,7 @@
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B10" s="1">
         <v>1879</v>
@@ -32414,7 +32658,7 @@
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B11" s="1">
         <v>1879</v>
@@ -32479,7 +32723,7 @@
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B12" s="1">
         <v>1879</v>
@@ -32544,7 +32788,7 @@
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B13" s="1">
         <v>1879</v>
@@ -32609,7 +32853,7 @@
     </row>
     <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B14" s="1">
         <v>1879</v>
@@ -32674,7 +32918,7 @@
     </row>
     <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B15" s="1">
         <v>1879</v>
@@ -32739,7 +32983,7 @@
     </row>
     <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B16" s="1">
         <v>1879</v>
@@ -32787,7 +33031,7 @@
         <v>3</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="R16" s="6">
         <v>2</v>
@@ -32804,7 +33048,7 @@
     </row>
     <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B17" s="1">
         <v>1879</v>
@@ -32869,7 +33113,7 @@
     </row>
     <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B18" s="1">
         <v>1879</v>
@@ -32934,7 +33178,7 @@
     </row>
     <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B19" s="1">
         <v>1879</v>
@@ -32999,7 +33243,7 @@
     </row>
     <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B20" s="1">
         <v>1879</v>
@@ -33064,7 +33308,7 @@
     </row>
     <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B21" s="1">
         <v>1879</v>
@@ -33129,7 +33373,7 @@
     </row>
     <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B22" s="1">
         <v>1879</v>
@@ -33194,7 +33438,7 @@
     </row>
     <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B23" s="1">
         <v>1879</v>
@@ -33259,7 +33503,7 @@
     </row>
     <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B24" s="1">
         <v>1879</v>
@@ -33324,7 +33568,7 @@
     </row>
     <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B25" s="1">
         <v>1879</v>
@@ -33356,10 +33600,10 @@
       <c r="K25" s="1">
         <v>0.188</v>
       </c>
-      <c r="L25" s="6">
+      <c r="L25" s="34">
         <v>0.187</v>
       </c>
-      <c r="M25" s="6">
+      <c r="M25" s="35">
         <v>86</v>
       </c>
       <c r="N25" s="6">
@@ -33389,7 +33633,7 @@
     </row>
     <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B26" s="1">
         <v>1879</v>
@@ -33421,10 +33665,10 @@
       <c r="K26" s="1">
         <v>0.16600000000000001</v>
       </c>
-      <c r="L26" s="6">
+      <c r="L26" s="34">
         <v>0.16200000000000001</v>
       </c>
-      <c r="M26" s="6">
+      <c r="M26" s="35">
         <v>80</v>
       </c>
       <c r="N26" s="6">
@@ -33454,7 +33698,7 @@
     </row>
     <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B27" s="1">
         <v>1879</v>
@@ -33486,10 +33730,10 @@
       <c r="K27" s="1">
         <v>0.11700000000000001</v>
       </c>
-      <c r="L27" s="6">
+      <c r="L27" s="34">
         <v>0.13100000000000001</v>
       </c>
-      <c r="M27" s="6">
+      <c r="M27" s="35">
         <v>65</v>
       </c>
       <c r="N27" s="6">
@@ -33519,7 +33763,7 @@
     </row>
     <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B28" s="1">
         <v>1879</v>
@@ -33551,10 +33795,10 @@
       <c r="K28" s="1">
         <v>0.14299999999999999</v>
       </c>
-      <c r="L28" s="6">
+      <c r="L28" s="34">
         <v>0.16200000000000001</v>
       </c>
-      <c r="M28" s="6">
+      <c r="M28" s="35">
         <v>78</v>
       </c>
       <c r="N28" s="6">
@@ -33584,7 +33828,7 @@
     </row>
     <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B29" s="1">
         <v>1879</v>
@@ -33616,10 +33860,10 @@
       <c r="K29" s="1">
         <v>0.189</v>
       </c>
-      <c r="L29" s="6">
+      <c r="L29" s="34">
         <v>0.2</v>
       </c>
-      <c r="M29" s="6">
+      <c r="M29" s="35">
         <v>87</v>
       </c>
       <c r="N29" s="6">
@@ -33649,7 +33893,7 @@
     </row>
     <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B30" s="1">
         <v>1879</v>
@@ -33681,10 +33925,10 @@
       <c r="K30" s="1">
         <v>0.19900000000000001</v>
       </c>
-      <c r="L30" s="6">
+      <c r="L30" s="34">
         <v>0.186</v>
       </c>
-      <c r="M30" s="6">
+      <c r="M30" s="35">
         <v>91</v>
       </c>
       <c r="N30" s="6">
@@ -33714,7 +33958,7 @@
     </row>
     <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B31" s="1">
         <v>1879</v>
@@ -33729,7 +33973,7 @@
         <v>29.753</v>
       </c>
       <c r="F31" s="6">
-        <v>20.648</v>
+        <v>29.648</v>
       </c>
       <c r="G31" s="1">
         <v>38.9</v>
@@ -33773,13 +34017,13 @@
       <c r="T31" s="1">
         <v>10</v>
       </c>
-      <c r="U31" s="22">
+      <c r="U31" s="21">
         <v>0.18</v>
       </c>
     </row>
     <row r="32" spans="1:21" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B32" s="1">
         <v>1879</v>
@@ -33844,7 +34088,7 @@
     </row>
     <row r="33" spans="1:21" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B33" s="1">
         <v>1879</v>
@@ -33880,7 +34124,7 @@
         <v>0.27700000000000002</v>
       </c>
       <c r="M33" s="1">
-        <v>909</v>
+        <v>90</v>
       </c>
       <c r="N33" s="6">
         <v>95</v>
@@ -33909,7 +34153,7 @@
     </row>
     <row r="34" spans="1:21" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B34" s="1">
         <v>1879</v>
@@ -34009,11 +34253,15 @@
       <c r="N35" s="16">
         <v>87.8</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>3.1</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>3.1</v>
       </c>
@@ -34026,6 +34274,23 @@
       <c r="U35" s="17">
         <v>0.56000000000000005</v>
       </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -34042,10 +34307,10 @@
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9439A7F5-7EB0-4803-AE7D-1F1798F594DA}">
-  <dimension ref="A2:U35"/>
+  <dimension ref="A2:U36"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="U33" sqref="U33"/>
+    <sheetView topLeftCell="K26" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -34058,34 +34323,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="28" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="32" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="28" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="29"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -34157,7 +34422,7 @@
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B4" s="1">
         <v>1879</v>
@@ -34205,7 +34470,7 @@
         <v>2</v>
       </c>
       <c r="Q4" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="R4" s="6">
         <v>1</v>
@@ -34222,7 +34487,7 @@
     </row>
     <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B5" s="1">
         <v>1879</v>
@@ -34287,7 +34552,7 @@
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B6" s="1">
         <v>1879</v>
@@ -34352,7 +34617,7 @@
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B7" s="1">
         <v>1879</v>
@@ -34417,7 +34682,7 @@
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B8" s="1">
         <v>1879</v>
@@ -34482,7 +34747,7 @@
     </row>
     <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B9" s="1">
         <v>1879</v>
@@ -34547,7 +34812,7 @@
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B10" s="1">
         <v>1879</v>
@@ -34612,7 +34877,7 @@
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B11" s="1">
         <v>1879</v>
@@ -34677,7 +34942,7 @@
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B12" s="1">
         <v>1879</v>
@@ -34719,7 +34984,7 @@
         <v>92</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P12" s="1">
         <v>1</v>
@@ -34742,7 +35007,7 @@
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B13" s="1">
         <v>1879</v>
@@ -34807,7 +35072,7 @@
     </row>
     <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B14" s="1">
         <v>1879</v>
@@ -34872,7 +35137,7 @@
     </row>
     <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B15" s="1">
         <v>1879</v>
@@ -34937,7 +35202,7 @@
     </row>
     <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B16" s="1">
         <v>1879</v>
@@ -35002,7 +35267,7 @@
     </row>
     <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B17" s="1">
         <v>1879</v>
@@ -35067,7 +35332,7 @@
     </row>
     <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B18" s="1">
         <v>1879</v>
@@ -35132,7 +35397,7 @@
     </row>
     <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B19" s="1">
         <v>1879</v>
@@ -35197,7 +35462,7 @@
     </row>
     <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B20" s="1">
         <v>1879</v>
@@ -35262,7 +35527,7 @@
     </row>
     <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B21" s="1">
         <v>1879</v>
@@ -35327,7 +35592,7 @@
     </row>
     <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B22" s="1">
         <v>1879</v>
@@ -35392,7 +35657,7 @@
     </row>
     <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B23" s="1">
         <v>1879</v>
@@ -35457,7 +35722,7 @@
     </row>
     <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B24" s="1">
         <v>1879</v>
@@ -35522,7 +35787,7 @@
     </row>
     <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B25" s="1">
         <v>1879</v>
@@ -35587,7 +35852,7 @@
     </row>
     <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B26" s="1">
         <v>1879</v>
@@ -35652,7 +35917,7 @@
     </row>
     <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B27" s="1">
         <v>1879</v>
@@ -35700,7 +35965,7 @@
         <v>5</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="R27" s="6">
         <v>3</v>
@@ -35717,7 +35982,7 @@
     </row>
     <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B28" s="1">
         <v>1879</v>
@@ -35782,7 +36047,7 @@
     </row>
     <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B29" s="1">
         <v>1879</v>
@@ -35847,7 +36112,7 @@
     </row>
     <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B30" s="1">
         <v>1879</v>
@@ -35912,7 +36177,7 @@
     </row>
     <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B31" s="1">
         <v>1879</v>
@@ -35954,7 +36219,7 @@
         <v>79</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="P31" s="1">
         <v>3</v>
@@ -35977,7 +36242,7 @@
     </row>
     <row r="32" spans="1:21" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B32" s="1">
         <v>1879</v>
@@ -36042,7 +36307,7 @@
     </row>
     <row r="33" spans="1:21" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B33" s="1">
         <v>1879</v>
@@ -36107,7 +36372,7 @@
     </row>
     <row r="34" spans="1:21" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B34" s="1">
         <v>1879</v>
@@ -36207,11 +36472,15 @@
       <c r="N35" s="16">
         <v>85.4</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>2.8</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>2.4</v>
       </c>
@@ -36224,6 +36493,23 @@
       <c r="U35" s="17">
         <v>1.337</v>
       </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -36243,8 +36529,8 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y52" sqref="Y52"/>
+      <pane ySplit="3" topLeftCell="J28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q36" sqref="Q36"/>
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
@@ -36264,34 +36550,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="28" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="32" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="28" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="29"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -36363,7 +36649,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B4" s="1">
         <v>1879</v>
@@ -36428,7 +36714,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B5" s="1">
         <v>1879</v>
@@ -36493,7 +36779,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B6" s="1">
         <v>1879</v>
@@ -36558,7 +36844,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B7" s="1">
         <v>1879</v>
@@ -36617,13 +36903,13 @@
       <c r="T7" s="1">
         <v>10</v>
       </c>
-      <c r="U7" s="22">
+      <c r="U7" s="21">
         <v>0.56999999999999995</v>
       </c>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B8" s="1">
         <v>1879</v>
@@ -36688,7 +36974,7 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B9" s="1">
         <v>1879</v>
@@ -36753,7 +37039,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B10" s="1">
         <v>1879</v>
@@ -36818,7 +37104,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B11" s="1">
         <v>1879</v>
@@ -36833,7 +37119,7 @@
         <v>30.391999999999999</v>
       </c>
       <c r="F11" s="6">
-        <v>29.254000000000001</v>
+        <v>30.254000000000001</v>
       </c>
       <c r="G11" s="1">
         <v>44.5</v>
@@ -36883,7 +37169,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B12" s="1">
         <v>1879</v>
@@ -36898,7 +37184,7 @@
         <v>30.286000000000001</v>
       </c>
       <c r="F12" s="6">
-        <v>29.32</v>
+        <v>30.32</v>
       </c>
       <c r="G12" s="1">
         <v>46.1</v>
@@ -36948,7 +37234,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B13" s="1">
         <v>1879</v>
@@ -36963,7 +37249,7 @@
         <v>30.24</v>
       </c>
       <c r="F13" s="6">
-        <v>29.22</v>
+        <v>30.22</v>
       </c>
       <c r="G13" s="1">
         <v>44</v>
@@ -37013,7 +37299,7 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B14" s="1">
         <v>1879</v>
@@ -37028,7 +37314,7 @@
         <v>30.373999999999999</v>
       </c>
       <c r="F14" s="6">
-        <v>29.21</v>
+        <v>30.21</v>
       </c>
       <c r="G14" s="1">
         <v>42.1</v>
@@ -37078,7 +37364,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B15" s="1">
         <v>1879</v>
@@ -37093,7 +37379,7 @@
         <v>29.931000000000001</v>
       </c>
       <c r="F15" s="6">
-        <v>29.353999999999999</v>
+        <v>30.353999999999999</v>
       </c>
       <c r="G15" s="1">
         <v>49.7</v>
@@ -37143,7 +37429,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B16" s="1">
         <v>1879</v>
@@ -37208,7 +37494,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B17" s="1">
         <v>1879</v>
@@ -37273,7 +37559,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B18" s="1">
         <v>1879</v>
@@ -37288,7 +37574,7 @@
         <v>29.539000000000001</v>
       </c>
       <c r="F18" s="6">
-        <v>29.556999999999999</v>
+        <v>29.536999999999999</v>
       </c>
       <c r="G18" s="1">
         <v>43.8</v>
@@ -37338,7 +37624,7 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B19" s="1">
         <v>1879</v>
@@ -37403,7 +37689,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B20" s="1">
         <v>1879</v>
@@ -37468,7 +37754,7 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B21" s="1">
         <v>1879</v>
@@ -37533,7 +37819,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B22" s="1">
         <v>1879</v>
@@ -37598,7 +37884,7 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B23" s="1">
         <v>1879</v>
@@ -37663,7 +37949,7 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B24" s="1">
         <v>1879</v>
@@ -37728,7 +38014,7 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B25" s="1">
         <v>1879</v>
@@ -37793,7 +38079,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B26" s="1">
         <v>1879</v>
@@ -37858,7 +38144,7 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B27" s="1">
         <v>1879</v>
@@ -37923,7 +38209,7 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B28" s="1">
         <v>1879</v>
@@ -37988,7 +38274,7 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B29" s="1">
         <v>1879</v>
@@ -38053,7 +38339,7 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B30" s="1">
         <v>1879</v>
@@ -38118,7 +38404,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B31" s="1">
         <v>1879</v>
@@ -38183,7 +38469,7 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B32" s="1">
         <v>1879</v>
@@ -38194,7 +38480,7 @@
       <c r="D32" s="1">
         <v>29</v>
       </c>
-      <c r="E32" s="25">
+      <c r="E32" s="24">
         <v>29.4</v>
       </c>
       <c r="F32" s="6">
@@ -38248,7 +38534,7 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B33" s="1">
         <v>1879</v>
@@ -38313,7 +38599,7 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B34" s="1">
         <v>1879</v>
@@ -38413,11 +38699,15 @@
       <c r="N35" s="16">
         <v>88.3</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>2.7</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>1.8</v>
       </c>
@@ -38451,8 +38741,8 @@
   <dimension ref="A2:U37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="D10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U10" sqref="U10"/>
+      <pane ySplit="3" topLeftCell="K27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q36" sqref="Q36"/>
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
@@ -38472,34 +38762,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="28" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="32" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="28" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="29"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -38571,7 +38861,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B4" s="1">
         <v>1879</v>
@@ -38636,7 +38926,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B5" s="1">
         <v>1879</v>
@@ -38701,7 +38991,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B6" s="1">
         <v>1879</v>
@@ -38766,7 +39056,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B7" s="1">
         <v>1879</v>
@@ -38805,7 +39095,7 @@
         <v>88</v>
       </c>
       <c r="N7" s="6">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O7" s="1" t="s">
         <v>22</v>
@@ -38831,7 +39121,7 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B8" s="1">
         <v>1879</v>
@@ -38870,7 +39160,7 @@
         <v>92</v>
       </c>
       <c r="N8" s="6">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="O8" s="1" t="s">
         <v>22</v>
@@ -38896,7 +39186,7 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B9" s="1">
         <v>1879</v>
@@ -38961,7 +39251,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B10" s="1">
         <v>1879</v>
@@ -39000,7 +39290,7 @@
         <v>97</v>
       </c>
       <c r="N10" s="6">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="O10" s="1" t="s">
         <v>25</v>
@@ -39026,7 +39316,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B11" s="1">
         <v>1879</v>
@@ -39065,7 +39355,7 @@
         <v>82</v>
       </c>
       <c r="N11" s="6">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O11" s="1" t="s">
         <v>25</v>
@@ -39091,7 +39381,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B12" s="1">
         <v>1879</v>
@@ -39130,7 +39420,7 @@
         <v>92</v>
       </c>
       <c r="N12" s="6">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="O12" s="1" t="s">
         <v>40</v>
@@ -39156,7 +39446,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B13" s="1">
         <v>1879</v>
@@ -39195,7 +39485,7 @@
         <v>97</v>
       </c>
       <c r="N13" s="6">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="O13" s="1" t="s">
         <v>25</v>
@@ -39221,7 +39511,7 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B14" s="1">
         <v>1879</v>
@@ -39286,7 +39576,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B15" s="1">
         <v>1879</v>
@@ -39325,7 +39615,7 @@
         <v>86</v>
       </c>
       <c r="N15" s="6">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="O15" s="1" t="s">
         <v>29</v>
@@ -39351,7 +39641,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B16" s="1">
         <v>1879</v>
@@ -39390,7 +39680,7 @@
         <v>79</v>
       </c>
       <c r="N16" s="6">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="O16" s="1" t="s">
         <v>31</v>
@@ -39416,7 +39706,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B17" s="1">
         <v>1879</v>
@@ -39455,7 +39745,7 @@
         <v>95</v>
       </c>
       <c r="N17" s="6">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O17" s="1" t="s">
         <v>25</v>
@@ -39481,7 +39771,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B18" s="1">
         <v>1879</v>
@@ -39520,7 +39810,7 @@
         <v>90</v>
       </c>
       <c r="N18" s="6">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="O18" s="1" t="s">
         <v>22</v>
@@ -39546,7 +39836,7 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B19" s="1">
         <v>1879</v>
@@ -39585,7 +39875,7 @@
         <v>88</v>
       </c>
       <c r="N19" s="6">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="O19" s="1" t="s">
         <v>21</v>
@@ -39611,7 +39901,7 @@
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B20" s="1">
         <v>1879</v>
@@ -39650,7 +39940,7 @@
         <v>93</v>
       </c>
       <c r="N20" s="6">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="O20" s="1" t="s">
         <v>21</v>
@@ -39676,7 +39966,7 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B21" s="1">
         <v>1879</v>
@@ -39715,7 +40005,7 @@
         <v>93</v>
       </c>
       <c r="N21" s="6">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>32</v>
@@ -39741,7 +40031,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B22" s="1">
         <v>1879</v>
@@ -39780,7 +40070,7 @@
         <v>88</v>
       </c>
       <c r="N22" s="6">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="O22" s="1" t="s">
         <v>32</v>
@@ -39806,7 +40096,7 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B23" s="1">
         <v>1879</v>
@@ -39845,7 +40135,7 @@
         <v>89</v>
       </c>
       <c r="N23" s="6">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="O23" s="1" t="s">
         <v>28</v>
@@ -39871,7 +40161,7 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B24" s="1">
         <v>1879</v>
@@ -39910,7 +40200,7 @@
         <v>78</v>
       </c>
       <c r="N24" s="6">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="O24" s="1" t="s">
         <v>28</v>
@@ -39936,7 +40226,7 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B25" s="1">
         <v>1879</v>
@@ -39975,7 +40265,7 @@
         <v>79</v>
       </c>
       <c r="N25" s="6">
-        <v>93</v>
+        <v>74</v>
       </c>
       <c r="O25" s="1" t="s">
         <v>21</v>
@@ -40001,7 +40291,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B26" s="1">
         <v>1879</v>
@@ -40040,7 +40330,7 @@
         <v>77</v>
       </c>
       <c r="N26" s="6">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="O26" s="1" t="s">
         <v>21</v>
@@ -40066,7 +40356,7 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B27" s="1">
         <v>1879</v>
@@ -40105,7 +40395,7 @@
         <v>85</v>
       </c>
       <c r="N27" s="6">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="O27" s="1" t="s">
         <v>21</v>
@@ -40131,7 +40421,7 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B28" s="1">
         <v>1879</v>
@@ -40152,7 +40442,7 @@
         <v>34.1</v>
       </c>
       <c r="H28" s="1">
-        <v>33.1</v>
+        <v>30.5</v>
       </c>
       <c r="I28" s="1">
         <v>29.9</v>
@@ -40170,7 +40460,7 @@
         <v>74</v>
       </c>
       <c r="N28" s="6">
-        <v>82</v>
+        <v>91</v>
       </c>
       <c r="O28" s="1" t="s">
         <v>21</v>
@@ -40196,7 +40486,7 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B29" s="1">
         <v>1879</v>
@@ -40235,7 +40525,7 @@
         <v>73</v>
       </c>
       <c r="N29" s="6">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O29" s="1" t="s">
         <v>21</v>
@@ -40261,7 +40551,7 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B30" s="1">
         <v>1879</v>
@@ -40300,7 +40590,7 @@
         <v>73</v>
       </c>
       <c r="N30" s="6">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="O30" s="1" t="s">
         <v>21</v>
@@ -40326,7 +40616,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B31" s="1">
         <v>1879</v>
@@ -40365,7 +40655,7 @@
         <v>86</v>
       </c>
       <c r="N31" s="6">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>42</v>
@@ -40391,7 +40681,7 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B32" s="1">
         <v>1879</v>
@@ -40430,7 +40720,7 @@
         <v>79</v>
       </c>
       <c r="N32" s="6">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O32" s="1" t="s">
         <v>22</v>
@@ -40456,7 +40746,7 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B33" s="1">
         <v>1879</v>
@@ -40495,7 +40785,7 @@
         <v>86</v>
       </c>
       <c r="N33" s="6">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="O33" s="1" t="s">
         <v>40</v>
@@ -40521,7 +40811,7 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B34" s="1">
         <v>1879</v>
@@ -40560,7 +40850,7 @@
         <v>82</v>
       </c>
       <c r="N34" s="9">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="O34" s="8" t="s">
         <v>22</v>
@@ -40592,10 +40882,10 @@
         <v>34</v>
       </c>
       <c r="E35" s="15" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="G35" s="14">
         <v>40.6</v>
@@ -40619,13 +40909,17 @@
         <v>85.6</v>
       </c>
       <c r="N35" s="16">
-        <v>96</v>
-      </c>
-      <c r="O35" s="14"/>
+        <v>88.6</v>
+      </c>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>2.1</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>1.5</v>
       </c>
@@ -40640,25 +40934,25 @@
       </c>
     </row>
     <row r="37" spans="1:21">
-      <c r="E37" s="34" t="s">
-        <v>99</v>
-      </c>
-      <c r="F37" s="34"/>
-      <c r="G37" s="34"/>
-      <c r="H37" s="34"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="34"/>
-      <c r="K37" s="34"/>
-      <c r="L37" s="34"/>
-      <c r="M37" s="34"/>
-      <c r="N37" s="34"/>
-      <c r="O37" s="34"/>
-      <c r="P37" s="34"/>
-      <c r="Q37" s="34"/>
-      <c r="R37" s="34"/>
-      <c r="S37" s="34"/>
-      <c r="T37" s="34"/>
-      <c r="U37" s="34"/>
+      <c r="E37" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="33"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="33"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="33"/>
+      <c r="S37" s="33"/>
+      <c r="T37" s="33"/>
+      <c r="U37" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -40677,10 +40971,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04B72303-BE3D-4EF5-B3F3-F954C1028531}">
-  <dimension ref="A2:U35"/>
+  <dimension ref="A2:V36"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView topLeftCell="K32" workbookViewId="0">
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -40690,34 +40984,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="28" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="32" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="28" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="29"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -40789,7 +41083,7 @@
     </row>
     <row r="4" spans="1:21" s="1" customFormat="1">
       <c r="A4" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B4" s="1">
         <v>1879</v>
@@ -40831,7 +41125,7 @@
         <v>80</v>
       </c>
       <c r="O4" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P4" s="1">
         <v>2</v>
@@ -40854,7 +41148,7 @@
     </row>
     <row r="5" spans="1:21" s="1" customFormat="1">
       <c r="A5" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B5" s="1">
         <v>1879</v>
@@ -40919,7 +41213,7 @@
     </row>
     <row r="6" spans="1:21" s="1" customFormat="1">
       <c r="A6" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B6" s="1">
         <v>1879</v>
@@ -40984,7 +41278,7 @@
     </row>
     <row r="7" spans="1:21" s="1" customFormat="1">
       <c r="A7" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B7" s="1">
         <v>1879</v>
@@ -41049,7 +41343,7 @@
     </row>
     <row r="8" spans="1:21" s="1" customFormat="1">
       <c r="A8" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B8" s="1">
         <v>1879</v>
@@ -41109,12 +41403,12 @@
         <v>0</v>
       </c>
       <c r="U8" s="12">
-        <v>0.32</v>
+        <v>3.2000000000000001E-2</v>
       </c>
     </row>
     <row r="9" spans="1:21" s="1" customFormat="1">
       <c r="A9" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B9" s="1">
         <v>1879</v>
@@ -41179,7 +41473,7 @@
     </row>
     <row r="10" spans="1:21" s="1" customFormat="1">
       <c r="A10" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B10" s="1">
         <v>1879</v>
@@ -41221,7 +41515,7 @@
         <v>90</v>
       </c>
       <c r="O10" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="P10" s="1">
         <v>2</v>
@@ -41244,7 +41538,7 @@
     </row>
     <row r="11" spans="1:21" s="1" customFormat="1">
       <c r="A11" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B11" s="1">
         <v>1879</v>
@@ -41309,7 +41603,7 @@
     </row>
     <row r="12" spans="1:21" s="1" customFormat="1">
       <c r="A12" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B12" s="1">
         <v>1879</v>
@@ -41374,7 +41668,7 @@
     </row>
     <row r="13" spans="1:21" s="1" customFormat="1">
       <c r="A13" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B13" s="1">
         <v>1879</v>
@@ -41439,7 +41733,7 @@
     </row>
     <row r="14" spans="1:21" s="1" customFormat="1">
       <c r="A14" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B14" s="1">
         <v>1879</v>
@@ -41504,7 +41798,7 @@
     </row>
     <row r="15" spans="1:21" s="1" customFormat="1">
       <c r="A15" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B15" s="1">
         <v>1879</v>
@@ -41569,7 +41863,7 @@
     </row>
     <row r="16" spans="1:21" s="1" customFormat="1">
       <c r="A16" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B16" s="1">
         <v>1879</v>
@@ -41634,7 +41928,7 @@
     </row>
     <row r="17" spans="1:21" s="1" customFormat="1">
       <c r="A17" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B17" s="1">
         <v>1879</v>
@@ -41682,7 +41976,7 @@
         <v>2</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="R17" s="6">
         <v>3</v>
@@ -41699,7 +41993,7 @@
     </row>
     <row r="18" spans="1:21" s="1" customFormat="1">
       <c r="A18" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B18" s="1">
         <v>1879</v>
@@ -41764,7 +42058,7 @@
     </row>
     <row r="19" spans="1:21" s="1" customFormat="1">
       <c r="A19" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B19" s="1">
         <v>1879</v>
@@ -41806,7 +42100,7 @@
         <v>94</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P19" s="1">
         <v>2</v>
@@ -41818,7 +42112,7 @@
         <v>2</v>
       </c>
       <c r="S19" s="1">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="T19" s="1">
         <v>10</v>
@@ -41829,7 +42123,7 @@
     </row>
     <row r="20" spans="1:21" s="1" customFormat="1">
       <c r="A20" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B20" s="1">
         <v>1879</v>
@@ -41871,7 +42165,7 @@
         <v>88</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P20" s="1">
         <v>3</v>
@@ -41894,7 +42188,7 @@
     </row>
     <row r="21" spans="1:21" s="1" customFormat="1">
       <c r="A21" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B21" s="1">
         <v>1879</v>
@@ -41936,7 +42230,7 @@
         <v>96</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P21" s="1">
         <v>1</v>
@@ -41959,7 +42253,7 @@
     </row>
     <row r="22" spans="1:21" s="1" customFormat="1">
       <c r="A22" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B22" s="1">
         <v>1879</v>
@@ -42024,7 +42318,7 @@
     </row>
     <row r="23" spans="1:21" s="1" customFormat="1">
       <c r="A23" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B23" s="1">
         <v>1879</v>
@@ -42089,7 +42383,7 @@
     </row>
     <row r="24" spans="1:21" s="1" customFormat="1">
       <c r="A24" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B24" s="1">
         <v>1879</v>
@@ -42154,7 +42448,7 @@
     </row>
     <row r="25" spans="1:21" s="1" customFormat="1">
       <c r="A25" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B25" s="1">
         <v>1879</v>
@@ -42219,7 +42513,7 @@
     </row>
     <row r="26" spans="1:21" s="1" customFormat="1">
       <c r="A26" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B26" s="1">
         <v>1879</v>
@@ -42284,7 +42578,7 @@
     </row>
     <row r="27" spans="1:21" s="1" customFormat="1">
       <c r="A27" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B27" s="1">
         <v>1879</v>
@@ -42349,7 +42643,7 @@
     </row>
     <row r="28" spans="1:21" s="1" customFormat="1">
       <c r="A28" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B28" s="1">
         <v>1879</v>
@@ -42414,7 +42708,7 @@
     </row>
     <row r="29" spans="1:21" s="1" customFormat="1">
       <c r="A29" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B29" s="1">
         <v>1879</v>
@@ -42456,7 +42750,7 @@
         <v>80</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="P29" s="1">
         <v>4</v>
@@ -42479,7 +42773,7 @@
     </row>
     <row r="30" spans="1:21" s="1" customFormat="1">
       <c r="A30" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B30" s="1">
         <v>1879</v>
@@ -42544,7 +42838,7 @@
     </row>
     <row r="31" spans="1:21" s="1" customFormat="1">
       <c r="A31" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B31" s="1">
         <v>1879</v>
@@ -42609,7 +42903,7 @@
     </row>
     <row r="32" spans="1:21" s="1" customFormat="1">
       <c r="A32" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B32" s="1">
         <v>1879</v>
@@ -42672,9 +42966,9 @@
         <v>0.10299999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:21" s="1" customFormat="1">
+    <row r="33" spans="1:22" s="1" customFormat="1">
       <c r="A33" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B33" s="1">
         <v>1879</v>
@@ -42737,9 +43031,9 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="34" spans="1:21" s="1" customFormat="1">
+    <row r="34" spans="1:22" s="1" customFormat="1">
       <c r="A34" s="5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B34" s="1">
         <v>1879</v>
@@ -42796,13 +43090,13 @@
         <v>2</v>
       </c>
       <c r="T34" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="U34" s="13" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="35" spans="1:21" s="1" customFormat="1">
+    <row r="35" spans="1:22" s="1" customFormat="1">
       <c r="A35" s="14"/>
       <c r="B35" s="15"/>
       <c r="C35" s="15"/>
@@ -42839,11 +43133,15 @@
       <c r="N35" s="16">
         <v>82.6</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>3.5</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>3.2</v>
       </c>
@@ -42856,6 +43154,24 @@
       <c r="U35" s="17">
         <v>1.827</v>
       </c>
+    </row>
+    <row r="36" spans="1:22">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
+      <c r="V36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -42875,9 +43191,9 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A2:U35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U19" sqref="U19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q36" sqref="Q36"/>
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
@@ -42897,34 +43213,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="28" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="32" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="28" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="29"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -42996,7 +43312,7 @@
     </row>
     <row r="4" spans="1:21">
       <c r="A4" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B4" s="1">
         <v>1879</v>
@@ -43014,7 +43330,7 @@
         <v>30.126999999999999</v>
       </c>
       <c r="G4" s="1">
-        <v>34.200000000000003</v>
+        <v>34.700000000000003</v>
       </c>
       <c r="H4" s="1">
         <v>33.200000000000003</v>
@@ -43061,7 +43377,7 @@
     </row>
     <row r="5" spans="1:21">
       <c r="A5" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B5" s="1">
         <v>1879</v>
@@ -43126,7 +43442,7 @@
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B6" s="1">
         <v>1879</v>
@@ -43191,7 +43507,7 @@
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B7" s="1">
         <v>1879</v>
@@ -43256,7 +43572,7 @@
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B8" s="1">
         <v>1879</v>
@@ -43321,7 +43637,7 @@
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B9" s="1">
         <v>1879</v>
@@ -43386,7 +43702,7 @@
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B10" s="1">
         <v>1879</v>
@@ -43451,7 +43767,7 @@
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B11" s="1">
         <v>1879</v>
@@ -43516,7 +43832,7 @@
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B12" s="1">
         <v>1879</v>
@@ -43581,7 +43897,7 @@
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B13" s="1">
         <v>1879</v>
@@ -43646,7 +43962,7 @@
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B14" s="1">
         <v>1879</v>
@@ -43711,7 +44027,7 @@
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B15" s="1">
         <v>1879</v>
@@ -43776,7 +44092,7 @@
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B16" s="1">
         <v>1879</v>
@@ -43841,7 +44157,7 @@
     </row>
     <row r="17" spans="1:21">
       <c r="A17" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B17" s="1">
         <v>1879</v>
@@ -43906,7 +44222,7 @@
     </row>
     <row r="18" spans="1:21">
       <c r="A18" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B18" s="1">
         <v>1879</v>
@@ -43971,7 +44287,7 @@
     </row>
     <row r="19" spans="1:21">
       <c r="A19" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B19" s="1">
         <v>1879</v>
@@ -44031,12 +44347,12 @@
         <v>5</v>
       </c>
       <c r="U19" s="11">
-        <v>0.38900000000000001</v>
+        <v>0.33900000000000002</v>
       </c>
     </row>
     <row r="20" spans="1:21">
       <c r="A20" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B20" s="1">
         <v>1879</v>
@@ -44101,7 +44417,7 @@
     </row>
     <row r="21" spans="1:21">
       <c r="A21" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B21" s="1">
         <v>1879</v>
@@ -44166,7 +44482,7 @@
     </row>
     <row r="22" spans="1:21">
       <c r="A22" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B22" s="1">
         <v>1879</v>
@@ -44231,7 +44547,7 @@
     </row>
     <row r="23" spans="1:21">
       <c r="A23" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B23" s="1">
         <v>1879</v>
@@ -44296,7 +44612,7 @@
     </row>
     <row r="24" spans="1:21">
       <c r="A24" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B24" s="1">
         <v>1879</v>
@@ -44361,7 +44677,7 @@
     </row>
     <row r="25" spans="1:21">
       <c r="A25" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B25" s="1">
         <v>1879</v>
@@ -44426,7 +44742,7 @@
     </row>
     <row r="26" spans="1:21">
       <c r="A26" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B26" s="1">
         <v>1879</v>
@@ -44491,7 +44807,7 @@
     </row>
     <row r="27" spans="1:21">
       <c r="A27" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B27" s="1">
         <v>1879</v>
@@ -44556,7 +44872,7 @@
     </row>
     <row r="28" spans="1:21">
       <c r="A28" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B28" s="1">
         <v>1879</v>
@@ -44621,7 +44937,7 @@
     </row>
     <row r="29" spans="1:21">
       <c r="A29" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B29" s="1">
         <v>1879</v>
@@ -44686,7 +45002,7 @@
     </row>
     <row r="30" spans="1:21">
       <c r="A30" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B30" s="1">
         <v>1879</v>
@@ -44751,7 +45067,7 @@
     </row>
     <row r="31" spans="1:21">
       <c r="A31" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B31" s="1">
         <v>1879</v>
@@ -44816,7 +45132,7 @@
     </row>
     <row r="32" spans="1:21">
       <c r="A32" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B32" s="1">
         <v>1879</v>
@@ -44881,7 +45197,7 @@
     </row>
     <row r="33" spans="1:21">
       <c r="A33" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B33" s="1">
         <v>1879</v>
@@ -44946,7 +45262,7 @@
     </row>
     <row r="34" spans="1:21">
       <c r="A34" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B34" s="1">
         <v>1879</v>
@@ -45046,11 +45362,15 @@
       <c r="N35" s="16">
         <v>89.9</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
-        <v>3.5</v>
-      </c>
-      <c r="Q35" s="15"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>2.1</v>
       </c>
@@ -45061,7 +45381,7 @@
         <v>6.4</v>
       </c>
       <c r="U35" s="17">
-        <v>1.393</v>
+        <v>1.593</v>
       </c>
     </row>
   </sheetData>
@@ -45082,9 +45402,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC883D87-CDC0-44B6-A4FF-292BE23CDBE0}">
   <dimension ref="A2:U35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q17" sqref="Q16:W17"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="C29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q36" sqref="Q36"/>
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
@@ -45104,34 +45424,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="28" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="32" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="28" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="29"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -46172,7 +46492,7 @@
       <c r="T18" s="1">
         <v>10</v>
       </c>
-      <c r="U18" s="22">
+      <c r="U18" s="21">
         <v>0.17</v>
       </c>
     </row>
@@ -47253,11 +47573,15 @@
       <c r="N35" s="16">
         <v>86.7</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>2.1</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>1.7</v>
       </c>
@@ -47291,8 +47615,8 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="R28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R28" sqref="R28"/>
+      <pane ySplit="3" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
@@ -47312,34 +47636,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="28" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="32" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="28" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="29"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -48008,7 +48332,7 @@
         <v>10</v>
       </c>
       <c r="E13" s="5">
-        <v>29.29</v>
+        <v>30.29</v>
       </c>
       <c r="F13" s="6">
         <v>30.163</v>
@@ -48576,7 +48900,7 @@
         <v>10</v>
       </c>
       <c r="U21" s="12">
-        <v>0.54</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -49021,7 +49345,7 @@
       <c r="Q28" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="R28" s="26" t="s">
+      <c r="R28" s="25" t="s">
         <v>44</v>
       </c>
       <c r="S28" s="1">
@@ -49461,12 +49785,14 @@
       <c r="N35" s="16">
         <v>88.1</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>3.9</v>
       </c>
-      <c r="Q35" s="15">
-        <v>3</v>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="R35" s="16">
         <v>3</v>
@@ -49477,7 +49803,7 @@
       <c r="T35" s="16">
         <v>5.7</v>
       </c>
-      <c r="U35" s="21">
+      <c r="U35" s="20">
         <v>2.66</v>
       </c>
     </row>
@@ -49498,10 +49824,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85204B69-BD73-463D-846C-48564885D419}">
-  <dimension ref="A2:U35"/>
+  <dimension ref="A2:U36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="Y36" sqref="Y36"/>
+    <sheetView topLeftCell="K23" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -49514,34 +49840,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="28" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="32" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="28" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="29"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -50712,7 +51038,7 @@
       <c r="T20" s="1">
         <v>10</v>
       </c>
-      <c r="U20" s="22">
+      <c r="U20" s="21">
         <v>0.27</v>
       </c>
     </row>
@@ -50798,7 +51124,7 @@
         <v>29.794</v>
       </c>
       <c r="F22" s="6">
-        <v>19.866</v>
+        <v>29.866</v>
       </c>
       <c r="G22" s="1">
         <v>39.299999999999997</v>
@@ -50973,7 +51299,7 @@
         <v>10</v>
       </c>
       <c r="U24" s="12">
-        <v>0.15</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="25" spans="1:21" s="1" customFormat="1">
@@ -51289,7 +51615,7 @@
         <v>31</v>
       </c>
       <c r="R29" s="6">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S29" s="1">
         <v>10</v>
@@ -51354,7 +51680,7 @@
         <v>37</v>
       </c>
       <c r="R30" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="S30" s="1">
         <v>10</v>
@@ -51519,7 +51845,7 @@
         <v>46</v>
       </c>
       <c r="H33" s="1">
-        <v>42.3</v>
+        <v>42.2</v>
       </c>
       <c r="I33" s="1">
         <v>37.799999999999997</v>
@@ -51663,12 +51989,14 @@
       <c r="N35" s="16">
         <v>88.8</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>2.9</v>
       </c>
-      <c r="Q35" s="15">
-        <v>2.7</v>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
       </c>
       <c r="R35" s="16">
         <v>2.7</v>
@@ -51682,6 +52010,24 @@
       <c r="U35" s="17">
         <v>1.0900000000000001</v>
       </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -51702,8 +52048,8 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U11" sqref="U11"/>
+      <pane ySplit="3" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q36" sqref="Q36"/>
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
@@ -51723,34 +52069,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="28" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="32" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="28" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="29"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -53872,11 +54218,15 @@
       <c r="N35" s="16">
         <v>86.6</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>2.9</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>2.4</v>
       </c>
@@ -53909,8 +54259,8 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="O14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AB1" sqref="AB1"/>
+      <pane ySplit="3" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q36" sqref="Q36"/>
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
@@ -53930,34 +54280,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="28" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="32" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="28" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="29"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -55063,7 +55413,7 @@
       <c r="T19" s="1">
         <v>10</v>
       </c>
-      <c r="U19" s="22">
+      <c r="U19" s="21">
         <v>0.32</v>
       </c>
     </row>
@@ -55173,7 +55523,7 @@
         <v>86</v>
       </c>
       <c r="N21" s="6">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="O21" s="1" t="s">
         <v>32</v>
@@ -55823,7 +56173,7 @@
         <v>73</v>
       </c>
       <c r="N31" s="6">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="O31" s="1" t="s">
         <v>25</v>
@@ -56079,11 +56429,15 @@
       <c r="N35" s="16">
         <v>81.7</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>2.4</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>2.9</v>
       </c>
@@ -56117,8 +56471,8 @@
   <dimension ref="A2:U35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="H12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J12" sqref="J12"/>
+      <pane ySplit="3" topLeftCell="E29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="Q36" sqref="Q36"/>
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
@@ -56138,34 +56492,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="28" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="32" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="28" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="29"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -56902,7 +57256,7 @@
         <v>30.370999999999999</v>
       </c>
       <c r="F14" s="6">
-        <v>320.34199999999998</v>
+        <v>30.341999999999999</v>
       </c>
       <c r="G14" s="1">
         <v>39.9</v>
@@ -57271,7 +57625,7 @@
       <c r="T19" s="1">
         <v>10</v>
       </c>
-      <c r="U19" s="22">
+      <c r="U19" s="21">
         <v>0.68</v>
       </c>
     </row>
@@ -58287,11 +58641,15 @@
       <c r="N35" s="16">
         <v>86.1</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>2.2000000000000002</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>1.7</v>
       </c>
@@ -58321,10 +58679,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EABDBAB1-DE1F-4A3C-9BCF-CF6F687CA5A3}">
-  <dimension ref="A2:U35"/>
+  <dimension ref="A2:U36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="U31" sqref="U31"/>
+    <sheetView topLeftCell="M23" workbookViewId="0">
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -58337,34 +58695,34 @@
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
       <c r="D2" s="19"/>
-      <c r="E2" s="30" t="s">
+      <c r="E2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="32" t="s">
+      <c r="F2" s="30"/>
+      <c r="G2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="28" t="s">
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="29"/>
-      <c r="M2" s="28" t="s">
+      <c r="L2" s="28"/>
+      <c r="M2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="32" t="s">
+      <c r="N2" s="28"/>
+      <c r="O2" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="28" t="s">
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="T2" s="29"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="10" t="s">
         <v>6</v>
       </c>
@@ -59036,7 +59394,7 @@
         <v>30.359000000000002</v>
       </c>
       <c r="F13" s="6">
-        <v>30.138000000000002</v>
+        <v>30.198</v>
       </c>
       <c r="G13" s="1">
         <v>46.7</v>
@@ -59122,7 +59480,7 @@
         <v>0.2</v>
       </c>
       <c r="M14" s="1">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="N14" s="6">
         <v>82</v>
@@ -60250,7 +60608,7 @@
       <c r="T31" s="1">
         <v>5</v>
       </c>
-      <c r="U31" s="22">
+      <c r="U31" s="21">
         <v>0.11</v>
       </c>
     </row>
@@ -60486,11 +60844,15 @@
       <c r="N35" s="16">
         <v>87</v>
       </c>
-      <c r="O35" s="14"/>
+      <c r="O35" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="P35" s="15">
         <v>2.8</v>
       </c>
-      <c r="Q35" s="15"/>
+      <c r="Q35" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="R35" s="16">
         <v>2.5</v>
       </c>
@@ -60503,6 +60865,23 @@
       <c r="U35" s="17">
         <v>0.73899999999999999</v>
       </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="1"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="R36" s="1"/>
+      <c r="S36" s="1"/>
+      <c r="T36" s="1"/>
+      <c r="U36" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -60518,6 +60897,76 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Preview>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
+    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-35918</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
+      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-35918</Url>
+      <Description>H7Q62YT2XCZT-908671883-35918</Description>
+    </_dlc_DocIdUrl>
+    <TaxCatchAll xmlns="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -60526,9 +60975,9 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100005F0ACF65EC5C4F8622AE277C35A390" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="a11f18feb37c278a512788b2e5a06b2f">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xmlns:ns3="502a79df-4f52-4757-ac2f-753e065f4c93" xmlns:ns4="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d97308c79b2bb5835a55e257627f43a5" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100005F0ACF65EC5C4F8622AE277C35A390" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fab658b03a225995fedfaf9f5ddfec44">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xmlns:ns3="502a79df-4f52-4757-ac2f-753e065f4c93" xmlns:ns4="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d7ac2c30bc9a14497f60988622dc2253" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
     <xsd:import namespace="09baef80-0d7a-4cab-b988-bb3d9fc0663b"/>
     <xsd:import namespace="502a79df-4f52-4757-ac2f-753e065f4c93"/>
@@ -60560,6 +61009,7 @@
                 <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
                 <xsd:element ref="ns4:TaxCatchAll" minOccurs="0"/>
                 <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -60658,6 +61108,11 @@
     <xsd:element name="MediaLengthInSeconds" ma:index="29" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="30" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -60827,88 +61282,18 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Preview xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Preview>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <_Flow_SignoffStatus xmlns="09baef80-0d7a-4cab-b988-bb3d9fc0663b" xsi:nil="true"/>
-    <_dlc_DocId xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">H7Q62YT2XCZT-908671883-35918</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="502a79df-4f52-4757-ac2f-753e065f4c93">
-      <Url>https://metoffice.sharepoint.com/sites/metofficelibraryarchiveteam/_layouts/15/DocIdRedir.aspx?ID=H7Q62YT2XCZT-908671883-35918</Url>
-      <Description>H7Q62YT2XCZT-908671883-35918</Description>
-    </_dlc_DocIdUrl>
-    <TaxCatchAll xmlns="95a6d21c-7db0-4b7e-981f-b4f22b02b9d8" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37504570-BFED-402B-9995-BC94451CA335}"/>
 </file>
 
-<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10001</Type>
-    <SequenceNumber>1000</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10002</Type>
-    <SequenceNumber>1001</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10004</Type>
-    <SequenceNumber>1002</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-  <Receiver>
-    <Name>Document ID Generator</Name>
-    <Synchronization>Synchronous</Synchronization>
-    <Type>10006</Type>
-    <SequenceNumber>1003</SequenceNumber>
-    <Url/>
-    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
-    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
-    <Data/>
-    <Filter/>
-  </Receiver>
-</spe:Receivers>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAF81848-3B1A-48A3-8464-49FCDA5CEFE8}"/>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9505B43A-A7A6-4906-BA4A-6D6065F35B07}"/>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C616CDF6-F922-4848-A2A2-64136AE73C0D}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{37504570-BFED-402B-9995-BC94451CA335}"/>
-</file>
-
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AAF81848-3B1A-48A3-8464-49FCDA5CEFE8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B779C19-A991-4B4D-BA2C-D5DF6053B2DB}"/>
 </file>